--- a/テスト指示書Ver2.xlsx
+++ b/テスト指示書Ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F77AADF-3AC4-497E-8721-0F806941FB9E}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9193EEA4-CD87-4E52-B8BB-8AB06F0D094D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="856">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -11049,49 +11049,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から13番目にある項目列を見る</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オモテ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント一覧の表の一番上の項目で一番右の項目「操作」列には「更新」と「削除」ボタンが表示されている</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -11855,7 +11812,983 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②/34</t>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で一番左にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>イチバンヒダリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から2番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から3番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から4番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から5番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から6番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から7番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から8番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から9番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から10番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から11番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から12番目にある項目を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の一番上にある項目で左から12番目にある項目列を見る</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント一覧画面」と記載されている下の表の「操作」の項目列のボタンの配置を確認</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要修正</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横並びではなく縦一列になってる</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコナラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「ID」列を確認。
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のID番号を確認
+③「アカウント一覧画面」と記載されている下の表の「ID」項目の下にある数字を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「ID」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）と次に新しいデータのID番号を確認
+③「アカウント一覧画面」と記載されている下の表の「ID」項目の下にある数字を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「family_name」列を確認。
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のfamily_nameを確認
+③「アカウント一覧画面」と記載されている下の表の「名前（姓）」項目の下にある表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「last_name」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のlast_nameを確認
+③「アカウント一覧画面」と記載されている下の表の「名前（名）」項目の下にある表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「family_name_kana」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のfamily_name_kanaを確認
+③「アカウント一覧画面」と記載されている下の表の「カナ（姓）」項目の下にある表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「mail」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のmailを確認
+③「アカウント一覧画面」と記載されている下の表の「メールアドレス」項目の下にある表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「authority」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のauthorityの数字を確認
+③「アカウント一覧画面」と記載されている下の表の「アカウント権限」項目の下にある表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「registered_time」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のregistered_time日付までを確認
+③「アカウント一覧画面」と記載されている下の表の「登録日時」項目の下にある表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="146" eb="150">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「update_time」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のupdate_timeの日付までを確認
+③「アカウント一覧画面」と記載されている下の表の「更新日時」項目の下にある表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="139" eb="143">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「gender」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のgenderの数字「0」を確認
+③「アカウント一覧画面」と記載されている下の表の「性別」項目の下にある「男」の表示を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①phpMyadminでテーブルの「account_data 」で表示タグを選択し「delete_flag」列を確認
+②事前に登録したデータの一番新しいデータ（ID番号が一番大きいもの）のdelete_flagの数字「0」を確認
+③「アカウント一覧画面」と記載されている下の表の「削除フラグ」項目の下にある表示「有効」を確認</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②要修正1/34</t>
+    <rPh sb="1" eb="4">
+      <t>ヨウシュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11917,7 +12850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11936,8 +12869,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -12012,11 +12951,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12163,58 +13113,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12230,6 +13157,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12722,7 +13653,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="C12" s="2" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="8"/>
@@ -22761,2537 +23692,2927 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B2625D-4C14-43F4-8BC9-62F8F8942E4C}">
   <dimension ref="A1:K657"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="66" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.25" style="62" customWidth="1"/>
-    <col min="5" max="5" width="46.375" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="69"/>
-    <col min="8" max="8" width="9" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="59"/>
+    <col min="1" max="1" width="5.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="37.5">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="5">
         <v>45907</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="60" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="37.5">
+      <c r="A3" s="19" t="s">
         <v>739</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="5">
         <v>45907</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="24" t="s">
         <v>733</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="5">
         <v>45907</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="5">
         <v>45907</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" ht="37.5">
-      <c r="A6" s="60" t="s">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="56.25">
+      <c r="A6" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:11" ht="37.5">
-      <c r="A7" s="60" t="s">
+      <c r="F6" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="56.25">
+      <c r="A7" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="1:11" ht="37.5">
-      <c r="A8" s="60" t="s">
+      <c r="F7" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="56.25">
+      <c r="A8" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="K8" s="61"/>
-    </row>
-    <row r="9" spans="1:11" ht="37.5">
-      <c r="A9" s="60" t="s">
+      <c r="F8" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="56.25">
+      <c r="A9" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="1:11" ht="37.5">
-      <c r="A10" s="60" t="s">
+      <c r="F9" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="56.25">
+      <c r="A10" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="K10" s="61"/>
-    </row>
-    <row r="11" spans="1:11" ht="37.5">
-      <c r="A11" s="60" t="s">
+      <c r="F10" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="56.25">
+      <c r="A11" s="19" t="s">
         <v>747</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="K11" s="61"/>
-    </row>
-    <row r="12" spans="1:11" ht="37.5">
-      <c r="A12" s="60" t="s">
+      <c r="F11" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="56.25">
+      <c r="A12" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:11" ht="37.5">
-      <c r="A13" s="60" t="s">
+      <c r="F12" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="56.25">
+      <c r="A13" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="K13" s="61"/>
-    </row>
-    <row r="14" spans="1:11" ht="37.5">
-      <c r="A14" s="60" t="s">
+      <c r="F13" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="56.25">
+      <c r="A14" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="K14" s="61"/>
-    </row>
-    <row r="15" spans="1:11" ht="37.5">
-      <c r="A15" s="60" t="s">
+      <c r="F14" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="56.25">
+      <c r="A15" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="K15" s="61"/>
-    </row>
-    <row r="16" spans="1:11" ht="37.5">
-      <c r="A16" s="60" t="s">
+      <c r="F15" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="56.25">
+      <c r="A16" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="1:11" ht="37.5">
-      <c r="A17" s="60" t="s">
+      <c r="F16" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="56.25">
+      <c r="A17" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="56.25">
+      <c r="A18" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B18" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C18" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>764</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>776</v>
-      </c>
-      <c r="K17" s="61"/>
-    </row>
-    <row r="18" spans="1:11" ht="56.25">
-      <c r="A18" s="60" t="s">
+      <c r="D18" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="56.25">
+      <c r="A19" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B19" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C19" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>785</v>
-      </c>
-      <c r="E18" s="62" t="s">
+      <c r="D19" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="K18" s="61"/>
-    </row>
-    <row r="19" spans="1:11" ht="37.5">
-      <c r="A19" s="60" t="s">
+      <c r="E19" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="168.75">
+      <c r="A20" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B20" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>730</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>787</v>
-      </c>
-      <c r="E19" s="62" t="s">
+      <c r="C20" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="168.75">
+      <c r="A21" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="168.75">
+      <c r="A22" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="168.75">
+      <c r="A23" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="K19" s="61"/>
-    </row>
-    <row r="20" spans="1:11" ht="112.5">
-      <c r="A20" s="60" t="s">
-        <v>810</v>
-      </c>
-      <c r="B20" s="61" t="s">
+      <c r="E23" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="168.75">
+      <c r="A24" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C24" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>778</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>779</v>
-      </c>
-      <c r="K20" s="61"/>
-    </row>
-    <row r="21" spans="1:11" ht="112.5">
-      <c r="A21" s="60" t="s">
-        <v>811</v>
-      </c>
-      <c r="B21" s="61" t="s">
+      <c r="D24" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="168.75">
+      <c r="A25" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>780</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>781</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>783</v>
-      </c>
-      <c r="K21" s="61"/>
-    </row>
-    <row r="22" spans="1:11" ht="112.5">
-      <c r="A22" s="60" t="s">
-        <v>812</v>
-      </c>
-      <c r="B22" s="61" t="s">
+      <c r="C25" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="168.75">
+      <c r="A26" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C26" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>782</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>784</v>
-      </c>
-      <c r="K22" s="61"/>
-    </row>
-    <row r="23" spans="1:11" ht="112.5">
-      <c r="A23" s="60" t="s">
-        <v>813</v>
-      </c>
-      <c r="B23" s="61" t="s">
+      <c r="D26" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="168.75">
+      <c r="A27" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C27" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D23" s="62" t="s">
-        <v>789</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>790</v>
-      </c>
-      <c r="K23" s="61"/>
-    </row>
-    <row r="24" spans="1:11" ht="112.5">
-      <c r="A24" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="B24" s="61" t="s">
+      <c r="D27" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="168.75">
+      <c r="A28" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C28" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D24" s="62" t="s">
-        <v>791</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>792</v>
-      </c>
-      <c r="K24" s="61"/>
-    </row>
-    <row r="25" spans="1:11" ht="112.5">
-      <c r="A25" s="60" t="s">
-        <v>815</v>
-      </c>
-      <c r="B25" s="61" t="s">
+      <c r="D28" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="168.75">
+      <c r="A29" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C29" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>793</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="K25" s="61"/>
-    </row>
-    <row r="26" spans="1:11" ht="112.5">
-      <c r="A26" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="B26" s="61" t="s">
+      <c r="D29" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="168.75">
+      <c r="A30" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C30" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>795</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>796</v>
-      </c>
-      <c r="K26" s="61"/>
-    </row>
-    <row r="27" spans="1:11" ht="112.5">
-      <c r="A27" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="B27" s="61" t="s">
+      <c r="D30" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="168.75">
+      <c r="A31" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C31" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D27" s="62" t="s">
-        <v>797</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>798</v>
-      </c>
-      <c r="K27" s="61"/>
-    </row>
-    <row r="28" spans="1:11" ht="112.5">
-      <c r="A28" s="60" t="s">
-        <v>818</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>799</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="K28" s="61"/>
-    </row>
-    <row r="29" spans="1:11" ht="112.5">
-      <c r="A29" s="60" t="s">
-        <v>819</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>802</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>801</v>
-      </c>
-      <c r="K29" s="61"/>
-    </row>
-    <row r="30" spans="1:11" ht="112.5">
-      <c r="A30" s="60" t="s">
-        <v>820</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>803</v>
-      </c>
-      <c r="E30" s="62" t="s">
+      <c r="D31" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="K30" s="61"/>
-    </row>
-    <row r="31" spans="1:11" ht="112.5">
-      <c r="A31" s="60" t="s">
-        <v>821</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="D31" s="62" t="s">
+      <c r="E31" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="E31" s="62" t="s">
-        <v>806</v>
-      </c>
-      <c r="K31" s="61"/>
+      <c r="F31" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="K32" s="61"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="11:11">
-      <c r="K33" s="61"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="11:11">
-      <c r="K34" s="61"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="11:11">
-      <c r="K35" s="61"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="11:11">
-      <c r="K36" s="61"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="11:11">
-      <c r="K37" s="61"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="11:11">
-      <c r="K38" s="61"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="61"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="11:11">
-      <c r="K40" s="61"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="11:11">
-      <c r="K41" s="61"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="11:11">
-      <c r="K42" s="61"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="11:11">
-      <c r="K43" s="61"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="11:11">
-      <c r="K44" s="61"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="11:11">
-      <c r="K45" s="61"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="11:11">
-      <c r="K46" s="61"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="11:11">
-      <c r="K47" s="61"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="11:11">
-      <c r="K48" s="61"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="11:11">
-      <c r="K49" s="61"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="11:11">
-      <c r="K50" s="61"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="11:11">
-      <c r="K51" s="61"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="11:11">
-      <c r="K52" s="61"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="11:11">
-      <c r="K53" s="61"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="11:11">
-      <c r="K54" s="61"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="11:11">
-      <c r="K55" s="61"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="11:11">
-      <c r="K56" s="61"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="11:11">
-      <c r="K57" s="61"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="11:11">
-      <c r="K58" s="61"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="11:11">
-      <c r="K59" s="61"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="11:11">
-      <c r="K60" s="61"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="11:11">
-      <c r="K61" s="61"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="11:11">
-      <c r="K62" s="61"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="11:11">
-      <c r="K63" s="61"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="11:11">
-      <c r="K64" s="61"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="11:11">
-      <c r="K65" s="61"/>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="11:11">
-      <c r="K66" s="61"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="11:11">
-      <c r="K67" s="61"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="11:11">
-      <c r="K68" s="61"/>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="11:11">
-      <c r="K69" s="61"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="11:11">
-      <c r="K70" s="61"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="11:11">
-      <c r="K71" s="61"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="11:11">
-      <c r="K72" s="61"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="11:11">
-      <c r="K73" s="61"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="11:11">
-      <c r="K74" s="61"/>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" spans="11:11">
-      <c r="K75" s="61"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="11:11">
-      <c r="K76" s="61"/>
+      <c r="K76" s="3"/>
     </row>
     <row r="77" spans="11:11">
-      <c r="K77" s="61"/>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="61"/>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="11:11">
-      <c r="K79" s="61"/>
+      <c r="K79" s="3"/>
     </row>
     <row r="80" spans="11:11">
-      <c r="K80" s="61"/>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="11:11">
-      <c r="K81" s="61"/>
+      <c r="K81" s="3"/>
     </row>
     <row r="82" spans="11:11">
-      <c r="K82" s="61"/>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="11:11">
-      <c r="K83" s="61"/>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" spans="11:11">
-      <c r="K84" s="61"/>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="11:11">
-      <c r="K85" s="61"/>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="11:11">
-      <c r="K86" s="61"/>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" s="61"/>
+      <c r="K87" s="3"/>
     </row>
     <row r="88" spans="11:11">
-      <c r="K88" s="61"/>
+      <c r="K88" s="3"/>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="61"/>
+      <c r="K89" s="3"/>
     </row>
     <row r="90" spans="11:11">
-      <c r="K90" s="61"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="11:11">
-      <c r="K91" s="61"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="11:11">
-      <c r="K92" s="61"/>
+      <c r="K92" s="3"/>
     </row>
     <row r="93" spans="11:11">
-      <c r="K93" s="61"/>
+      <c r="K93" s="3"/>
     </row>
     <row r="94" spans="11:11">
-      <c r="K94" s="61"/>
+      <c r="K94" s="3"/>
     </row>
     <row r="95" spans="11:11">
-      <c r="K95" s="61"/>
+      <c r="K95" s="3"/>
     </row>
     <row r="96" spans="11:11">
-      <c r="K96" s="61"/>
+      <c r="K96" s="3"/>
     </row>
     <row r="97" spans="11:11">
-      <c r="K97" s="61"/>
+      <c r="K97" s="3"/>
     </row>
     <row r="98" spans="11:11">
-      <c r="K98" s="61"/>
+      <c r="K98" s="3"/>
     </row>
     <row r="99" spans="11:11">
-      <c r="K99" s="61"/>
+      <c r="K99" s="3"/>
     </row>
     <row r="100" spans="11:11">
-      <c r="K100" s="61"/>
+      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="11:11">
-      <c r="K101" s="61"/>
+      <c r="K101" s="3"/>
     </row>
     <row r="102" spans="11:11">
-      <c r="K102" s="61"/>
+      <c r="K102" s="3"/>
     </row>
     <row r="103" spans="11:11">
-      <c r="K103" s="61"/>
+      <c r="K103" s="3"/>
     </row>
     <row r="104" spans="11:11">
-      <c r="K104" s="61"/>
+      <c r="K104" s="3"/>
     </row>
     <row r="105" spans="11:11">
-      <c r="K105" s="61"/>
+      <c r="K105" s="3"/>
     </row>
     <row r="106" spans="11:11">
-      <c r="K106" s="61"/>
+      <c r="K106" s="3"/>
     </row>
     <row r="107" spans="11:11">
-      <c r="K107" s="61"/>
+      <c r="K107" s="3"/>
     </row>
     <row r="108" spans="11:11">
-      <c r="K108" s="61"/>
+      <c r="K108" s="3"/>
     </row>
     <row r="109" spans="11:11">
-      <c r="K109" s="61"/>
+      <c r="K109" s="3"/>
     </row>
     <row r="110" spans="11:11">
-      <c r="K110" s="61"/>
+      <c r="K110" s="3"/>
     </row>
     <row r="111" spans="11:11">
-      <c r="K111" s="61"/>
+      <c r="K111" s="3"/>
     </row>
     <row r="112" spans="11:11">
-      <c r="K112" s="61"/>
+      <c r="K112" s="3"/>
     </row>
     <row r="113" spans="11:11">
-      <c r="K113" s="61"/>
+      <c r="K113" s="3"/>
     </row>
     <row r="114" spans="11:11">
-      <c r="K114" s="61"/>
+      <c r="K114" s="3"/>
     </row>
     <row r="115" spans="11:11">
-      <c r="K115" s="61"/>
+      <c r="K115" s="3"/>
     </row>
     <row r="116" spans="11:11">
-      <c r="K116" s="61"/>
+      <c r="K116" s="3"/>
     </row>
     <row r="117" spans="11:11">
-      <c r="K117" s="61"/>
+      <c r="K117" s="3"/>
     </row>
     <row r="118" spans="11:11">
-      <c r="K118" s="61"/>
+      <c r="K118" s="3"/>
     </row>
     <row r="119" spans="11:11">
-      <c r="K119" s="61"/>
+      <c r="K119" s="3"/>
     </row>
     <row r="120" spans="11:11">
-      <c r="K120" s="61"/>
+      <c r="K120" s="3"/>
     </row>
     <row r="121" spans="11:11">
-      <c r="K121" s="61"/>
+      <c r="K121" s="3"/>
     </row>
     <row r="122" spans="11:11">
-      <c r="K122" s="61"/>
+      <c r="K122" s="3"/>
     </row>
     <row r="123" spans="11:11">
-      <c r="K123" s="61"/>
+      <c r="K123" s="3"/>
     </row>
     <row r="124" spans="11:11">
-      <c r="K124" s="61"/>
+      <c r="K124" s="3"/>
     </row>
     <row r="125" spans="11:11">
-      <c r="K125" s="61"/>
+      <c r="K125" s="3"/>
     </row>
     <row r="126" spans="11:11">
-      <c r="K126" s="61"/>
+      <c r="K126" s="3"/>
     </row>
     <row r="127" spans="11:11">
-      <c r="K127" s="61"/>
+      <c r="K127" s="3"/>
     </row>
     <row r="128" spans="11:11">
-      <c r="K128" s="61"/>
+      <c r="K128" s="3"/>
     </row>
     <row r="129" spans="11:11">
-      <c r="K129" s="61"/>
+      <c r="K129" s="3"/>
     </row>
     <row r="130" spans="11:11">
-      <c r="K130" s="61"/>
+      <c r="K130" s="3"/>
     </row>
     <row r="131" spans="11:11">
-      <c r="K131" s="61"/>
+      <c r="K131" s="3"/>
     </row>
     <row r="132" spans="11:11">
-      <c r="K132" s="61"/>
+      <c r="K132" s="3"/>
     </row>
     <row r="133" spans="11:11">
-      <c r="K133" s="61"/>
+      <c r="K133" s="3"/>
     </row>
     <row r="134" spans="11:11">
-      <c r="K134" s="61"/>
+      <c r="K134" s="3"/>
     </row>
     <row r="135" spans="11:11">
-      <c r="K135" s="61"/>
+      <c r="K135" s="3"/>
     </row>
     <row r="136" spans="11:11">
-      <c r="K136" s="61"/>
+      <c r="K136" s="3"/>
     </row>
     <row r="137" spans="11:11">
-      <c r="K137" s="61"/>
+      <c r="K137" s="3"/>
     </row>
     <row r="138" spans="11:11">
-      <c r="K138" s="61"/>
+      <c r="K138" s="3"/>
     </row>
     <row r="139" spans="11:11">
-      <c r="K139" s="61"/>
+      <c r="K139" s="3"/>
     </row>
     <row r="140" spans="11:11">
-      <c r="K140" s="61"/>
+      <c r="K140" s="3"/>
     </row>
     <row r="141" spans="11:11">
-      <c r="K141" s="61"/>
+      <c r="K141" s="3"/>
     </row>
     <row r="142" spans="11:11">
-      <c r="K142" s="61"/>
+      <c r="K142" s="3"/>
     </row>
     <row r="143" spans="11:11">
-      <c r="K143" s="61"/>
+      <c r="K143" s="3"/>
     </row>
     <row r="144" spans="11:11">
-      <c r="K144" s="61"/>
+      <c r="K144" s="3"/>
     </row>
     <row r="145" spans="11:11">
-      <c r="K145" s="61"/>
+      <c r="K145" s="3"/>
     </row>
     <row r="146" spans="11:11">
-      <c r="K146" s="61"/>
+      <c r="K146" s="3"/>
     </row>
     <row r="147" spans="11:11">
-      <c r="K147" s="61"/>
+      <c r="K147" s="3"/>
     </row>
     <row r="148" spans="11:11">
-      <c r="K148" s="61"/>
+      <c r="K148" s="3"/>
     </row>
     <row r="149" spans="11:11">
-      <c r="K149" s="61"/>
+      <c r="K149" s="3"/>
     </row>
     <row r="150" spans="11:11">
-      <c r="K150" s="61"/>
+      <c r="K150" s="3"/>
     </row>
     <row r="151" spans="11:11">
-      <c r="K151" s="61"/>
+      <c r="K151" s="3"/>
     </row>
     <row r="152" spans="11:11">
-      <c r="K152" s="61"/>
+      <c r="K152" s="3"/>
     </row>
     <row r="153" spans="11:11">
-      <c r="K153" s="61"/>
+      <c r="K153" s="3"/>
     </row>
     <row r="154" spans="11:11">
-      <c r="K154" s="61"/>
+      <c r="K154" s="3"/>
     </row>
     <row r="155" spans="11:11">
-      <c r="K155" s="61"/>
+      <c r="K155" s="3"/>
     </row>
     <row r="156" spans="11:11">
-      <c r="K156" s="61"/>
+      <c r="K156" s="3"/>
     </row>
     <row r="157" spans="11:11">
-      <c r="K157" s="61"/>
+      <c r="K157" s="3"/>
     </row>
     <row r="158" spans="11:11">
-      <c r="K158" s="61"/>
+      <c r="K158" s="3"/>
     </row>
     <row r="159" spans="11:11">
-      <c r="K159" s="61"/>
+      <c r="K159" s="3"/>
     </row>
     <row r="160" spans="11:11">
-      <c r="K160" s="61"/>
+      <c r="K160" s="3"/>
     </row>
     <row r="161" spans="11:11">
-      <c r="K161" s="61"/>
+      <c r="K161" s="3"/>
     </row>
     <row r="162" spans="11:11">
-      <c r="K162" s="61"/>
+      <c r="K162" s="3"/>
     </row>
     <row r="163" spans="11:11">
-      <c r="K163" s="61"/>
+      <c r="K163" s="3"/>
     </row>
     <row r="164" spans="11:11">
-      <c r="K164" s="61"/>
+      <c r="K164" s="3"/>
     </row>
     <row r="165" spans="11:11">
-      <c r="K165" s="61"/>
+      <c r="K165" s="3"/>
     </row>
     <row r="166" spans="11:11">
-      <c r="K166" s="61"/>
+      <c r="K166" s="3"/>
     </row>
     <row r="167" spans="11:11">
-      <c r="K167" s="61"/>
+      <c r="K167" s="3"/>
     </row>
     <row r="168" spans="11:11">
-      <c r="K168" s="61"/>
+      <c r="K168" s="3"/>
     </row>
     <row r="169" spans="11:11">
-      <c r="K169" s="61"/>
+      <c r="K169" s="3"/>
     </row>
     <row r="170" spans="11:11">
-      <c r="K170" s="61"/>
+      <c r="K170" s="3"/>
     </row>
     <row r="171" spans="11:11">
-      <c r="K171" s="61"/>
+      <c r="K171" s="3"/>
     </row>
     <row r="172" spans="11:11">
-      <c r="K172" s="61"/>
+      <c r="K172" s="3"/>
     </row>
     <row r="173" spans="11:11">
-      <c r="K173" s="61"/>
+      <c r="K173" s="3"/>
     </row>
     <row r="174" spans="11:11">
-      <c r="K174" s="61"/>
+      <c r="K174" s="3"/>
     </row>
     <row r="175" spans="11:11">
-      <c r="K175" s="61"/>
+      <c r="K175" s="3"/>
     </row>
     <row r="176" spans="11:11">
-      <c r="K176" s="61"/>
+      <c r="K176" s="3"/>
     </row>
     <row r="177" spans="11:11">
-      <c r="K177" s="61"/>
+      <c r="K177" s="3"/>
     </row>
     <row r="178" spans="11:11">
-      <c r="K178" s="61"/>
+      <c r="K178" s="3"/>
     </row>
     <row r="179" spans="11:11">
-      <c r="K179" s="61"/>
+      <c r="K179" s="3"/>
     </row>
     <row r="180" spans="11:11">
-      <c r="K180" s="61"/>
+      <c r="K180" s="3"/>
     </row>
     <row r="181" spans="11:11">
-      <c r="K181" s="61"/>
+      <c r="K181" s="3"/>
     </row>
     <row r="182" spans="11:11">
-      <c r="K182" s="61"/>
+      <c r="K182" s="3"/>
     </row>
     <row r="183" spans="11:11">
-      <c r="K183" s="61"/>
+      <c r="K183" s="3"/>
     </row>
     <row r="184" spans="11:11">
-      <c r="K184" s="61"/>
+      <c r="K184" s="3"/>
     </row>
     <row r="185" spans="11:11">
-      <c r="K185" s="61"/>
+      <c r="K185" s="3"/>
     </row>
     <row r="186" spans="11:11">
-      <c r="K186" s="61"/>
+      <c r="K186" s="3"/>
     </row>
     <row r="187" spans="11:11">
-      <c r="K187" s="61"/>
+      <c r="K187" s="3"/>
     </row>
     <row r="188" spans="11:11">
-      <c r="K188" s="61"/>
+      <c r="K188" s="3"/>
     </row>
     <row r="189" spans="11:11">
-      <c r="K189" s="61"/>
+      <c r="K189" s="3"/>
     </row>
     <row r="190" spans="11:11">
-      <c r="K190" s="61"/>
+      <c r="K190" s="3"/>
     </row>
     <row r="191" spans="11:11">
-      <c r="K191" s="61"/>
+      <c r="K191" s="3"/>
     </row>
     <row r="192" spans="11:11">
-      <c r="K192" s="61"/>
+      <c r="K192" s="3"/>
     </row>
     <row r="193" spans="11:11">
-      <c r="K193" s="61"/>
+      <c r="K193" s="3"/>
     </row>
     <row r="194" spans="11:11">
-      <c r="K194" s="61"/>
+      <c r="K194" s="3"/>
     </row>
     <row r="195" spans="11:11">
-      <c r="K195" s="61"/>
+      <c r="K195" s="3"/>
     </row>
     <row r="196" spans="11:11">
-      <c r="K196" s="61"/>
+      <c r="K196" s="3"/>
     </row>
     <row r="197" spans="11:11">
-      <c r="K197" s="61"/>
+      <c r="K197" s="3"/>
     </row>
     <row r="198" spans="11:11">
-      <c r="K198" s="61"/>
+      <c r="K198" s="3"/>
     </row>
     <row r="199" spans="11:11">
-      <c r="K199" s="61"/>
+      <c r="K199" s="3"/>
     </row>
     <row r="200" spans="11:11">
-      <c r="K200" s="61"/>
+      <c r="K200" s="3"/>
     </row>
     <row r="201" spans="11:11">
-      <c r="K201" s="61"/>
+      <c r="K201" s="3"/>
     </row>
     <row r="202" spans="11:11">
-      <c r="K202" s="61"/>
+      <c r="K202" s="3"/>
     </row>
     <row r="203" spans="11:11">
-      <c r="K203" s="61"/>
+      <c r="K203" s="3"/>
     </row>
     <row r="204" spans="11:11">
-      <c r="K204" s="61"/>
+      <c r="K204" s="3"/>
     </row>
     <row r="205" spans="11:11">
-      <c r="K205" s="61"/>
+      <c r="K205" s="3"/>
     </row>
     <row r="206" spans="11:11">
-      <c r="K206" s="61"/>
+      <c r="K206" s="3"/>
     </row>
     <row r="207" spans="11:11">
-      <c r="K207" s="61"/>
+      <c r="K207" s="3"/>
     </row>
     <row r="208" spans="11:11">
-      <c r="K208" s="61"/>
+      <c r="K208" s="3"/>
     </row>
     <row r="209" spans="11:11">
-      <c r="K209" s="61"/>
+      <c r="K209" s="3"/>
     </row>
     <row r="210" spans="11:11">
-      <c r="K210" s="61"/>
+      <c r="K210" s="3"/>
     </row>
     <row r="211" spans="11:11">
-      <c r="K211" s="61"/>
+      <c r="K211" s="3"/>
     </row>
     <row r="212" spans="11:11">
-      <c r="K212" s="61"/>
+      <c r="K212" s="3"/>
     </row>
     <row r="213" spans="11:11">
-      <c r="K213" s="61"/>
+      <c r="K213" s="3"/>
     </row>
     <row r="214" spans="11:11">
-      <c r="K214" s="61"/>
+      <c r="K214" s="3"/>
     </row>
     <row r="215" spans="11:11">
-      <c r="K215" s="61"/>
+      <c r="K215" s="3"/>
     </row>
     <row r="216" spans="11:11">
-      <c r="K216" s="61"/>
+      <c r="K216" s="3"/>
     </row>
     <row r="217" spans="11:11">
-      <c r="K217" s="61"/>
+      <c r="K217" s="3"/>
     </row>
     <row r="218" spans="11:11">
-      <c r="K218" s="61"/>
+      <c r="K218" s="3"/>
     </row>
     <row r="219" spans="11:11">
-      <c r="K219" s="61"/>
+      <c r="K219" s="3"/>
     </row>
     <row r="220" spans="11:11">
-      <c r="K220" s="61"/>
+      <c r="K220" s="3"/>
     </row>
     <row r="221" spans="11:11">
-      <c r="K221" s="61"/>
+      <c r="K221" s="3"/>
     </row>
     <row r="222" spans="11:11">
-      <c r="K222" s="61"/>
+      <c r="K222" s="3"/>
     </row>
     <row r="223" spans="11:11">
-      <c r="K223" s="61"/>
+      <c r="K223" s="3"/>
     </row>
     <row r="224" spans="11:11">
-      <c r="K224" s="61"/>
+      <c r="K224" s="3"/>
     </row>
     <row r="225" spans="11:11">
-      <c r="K225" s="61"/>
+      <c r="K225" s="3"/>
     </row>
     <row r="226" spans="11:11">
-      <c r="K226" s="61"/>
+      <c r="K226" s="3"/>
     </row>
     <row r="227" spans="11:11">
-      <c r="K227" s="61"/>
+      <c r="K227" s="3"/>
     </row>
     <row r="228" spans="11:11">
-      <c r="K228" s="61"/>
+      <c r="K228" s="3"/>
     </row>
     <row r="229" spans="11:11">
-      <c r="K229" s="61"/>
+      <c r="K229" s="3"/>
     </row>
     <row r="230" spans="11:11">
-      <c r="K230" s="61"/>
+      <c r="K230" s="3"/>
     </row>
     <row r="231" spans="11:11">
-      <c r="K231" s="61"/>
+      <c r="K231" s="3"/>
     </row>
     <row r="232" spans="11:11">
-      <c r="K232" s="61"/>
+      <c r="K232" s="3"/>
     </row>
     <row r="233" spans="11:11">
-      <c r="K233" s="61"/>
+      <c r="K233" s="3"/>
     </row>
     <row r="234" spans="11:11">
-      <c r="K234" s="61"/>
+      <c r="K234" s="3"/>
     </row>
     <row r="235" spans="11:11">
-      <c r="K235" s="61"/>
+      <c r="K235" s="3"/>
     </row>
     <row r="236" spans="11:11">
-      <c r="K236" s="61"/>
+      <c r="K236" s="3"/>
     </row>
     <row r="237" spans="11:11">
-      <c r="K237" s="61"/>
+      <c r="K237" s="3"/>
     </row>
     <row r="238" spans="11:11">
-      <c r="K238" s="61"/>
+      <c r="K238" s="3"/>
     </row>
     <row r="239" spans="11:11">
-      <c r="K239" s="61"/>
+      <c r="K239" s="3"/>
     </row>
     <row r="240" spans="11:11">
-      <c r="K240" s="61"/>
+      <c r="K240" s="3"/>
     </row>
     <row r="241" spans="11:11">
-      <c r="K241" s="61"/>
+      <c r="K241" s="3"/>
     </row>
     <row r="242" spans="11:11">
-      <c r="K242" s="61"/>
+      <c r="K242" s="3"/>
     </row>
     <row r="243" spans="11:11">
-      <c r="K243" s="61"/>
+      <c r="K243" s="3"/>
     </row>
     <row r="244" spans="11:11">
-      <c r="K244" s="61"/>
+      <c r="K244" s="3"/>
     </row>
     <row r="245" spans="11:11">
-      <c r="K245" s="61"/>
+      <c r="K245" s="3"/>
     </row>
     <row r="246" spans="11:11">
-      <c r="K246" s="61"/>
+      <c r="K246" s="3"/>
     </row>
     <row r="247" spans="11:11">
-      <c r="K247" s="61"/>
+      <c r="K247" s="3"/>
     </row>
     <row r="248" spans="11:11">
-      <c r="K248" s="61"/>
+      <c r="K248" s="3"/>
     </row>
     <row r="249" spans="11:11">
-      <c r="K249" s="61"/>
+      <c r="K249" s="3"/>
     </row>
     <row r="250" spans="11:11">
-      <c r="K250" s="61"/>
+      <c r="K250" s="3"/>
     </row>
     <row r="251" spans="11:11">
-      <c r="K251" s="61"/>
+      <c r="K251" s="3"/>
     </row>
     <row r="252" spans="11:11">
-      <c r="K252" s="61"/>
+      <c r="K252" s="3"/>
     </row>
     <row r="253" spans="11:11">
-      <c r="K253" s="61"/>
+      <c r="K253" s="3"/>
     </row>
     <row r="254" spans="11:11">
-      <c r="K254" s="61"/>
+      <c r="K254" s="3"/>
     </row>
     <row r="255" spans="11:11">
-      <c r="K255" s="61"/>
+      <c r="K255" s="3"/>
     </row>
     <row r="256" spans="11:11">
-      <c r="K256" s="61"/>
+      <c r="K256" s="3"/>
     </row>
     <row r="257" spans="11:11">
-      <c r="K257" s="61"/>
+      <c r="K257" s="3"/>
     </row>
     <row r="258" spans="11:11">
-      <c r="K258" s="61"/>
+      <c r="K258" s="3"/>
     </row>
     <row r="259" spans="11:11">
-      <c r="K259" s="61"/>
+      <c r="K259" s="3"/>
     </row>
     <row r="260" spans="11:11">
-      <c r="K260" s="61"/>
+      <c r="K260" s="3"/>
     </row>
     <row r="261" spans="11:11">
-      <c r="K261" s="61"/>
+      <c r="K261" s="3"/>
     </row>
     <row r="262" spans="11:11">
-      <c r="K262" s="61"/>
+      <c r="K262" s="3"/>
     </row>
     <row r="263" spans="11:11">
-      <c r="K263" s="61"/>
+      <c r="K263" s="3"/>
     </row>
     <row r="264" spans="11:11">
-      <c r="K264" s="61"/>
+      <c r="K264" s="3"/>
     </row>
     <row r="265" spans="11:11">
-      <c r="K265" s="61"/>
+      <c r="K265" s="3"/>
     </row>
     <row r="266" spans="11:11">
-      <c r="K266" s="61"/>
+      <c r="K266" s="3"/>
     </row>
     <row r="267" spans="11:11">
-      <c r="K267" s="61"/>
+      <c r="K267" s="3"/>
     </row>
     <row r="268" spans="11:11">
-      <c r="K268" s="61"/>
+      <c r="K268" s="3"/>
     </row>
     <row r="269" spans="11:11">
-      <c r="K269" s="61"/>
+      <c r="K269" s="3"/>
     </row>
     <row r="270" spans="11:11">
-      <c r="K270" s="61"/>
+      <c r="K270" s="3"/>
     </row>
     <row r="271" spans="11:11">
-      <c r="K271" s="61"/>
+      <c r="K271" s="3"/>
     </row>
     <row r="272" spans="11:11">
-      <c r="K272" s="61"/>
+      <c r="K272" s="3"/>
     </row>
     <row r="273" spans="11:11">
-      <c r="K273" s="61"/>
+      <c r="K273" s="3"/>
     </row>
     <row r="274" spans="11:11">
-      <c r="K274" s="61"/>
+      <c r="K274" s="3"/>
     </row>
     <row r="275" spans="11:11">
-      <c r="K275" s="61"/>
+      <c r="K275" s="3"/>
     </row>
     <row r="276" spans="11:11">
-      <c r="K276" s="61"/>
+      <c r="K276" s="3"/>
     </row>
     <row r="277" spans="11:11">
-      <c r="K277" s="61"/>
+      <c r="K277" s="3"/>
     </row>
     <row r="278" spans="11:11">
-      <c r="K278" s="61"/>
+      <c r="K278" s="3"/>
     </row>
     <row r="279" spans="11:11">
-      <c r="K279" s="61"/>
+      <c r="K279" s="3"/>
     </row>
     <row r="280" spans="11:11">
-      <c r="K280" s="61"/>
+      <c r="K280" s="3"/>
     </row>
     <row r="281" spans="11:11">
-      <c r="K281" s="61"/>
+      <c r="K281" s="3"/>
     </row>
     <row r="282" spans="11:11">
-      <c r="K282" s="61"/>
+      <c r="K282" s="3"/>
     </row>
     <row r="283" spans="11:11">
-      <c r="K283" s="61"/>
+      <c r="K283" s="3"/>
     </row>
     <row r="284" spans="11:11">
-      <c r="K284" s="61"/>
+      <c r="K284" s="3"/>
     </row>
     <row r="285" spans="11:11">
-      <c r="K285" s="61"/>
+      <c r="K285" s="3"/>
     </row>
     <row r="286" spans="11:11">
-      <c r="K286" s="61"/>
+      <c r="K286" s="3"/>
     </row>
     <row r="287" spans="11:11">
-      <c r="K287" s="61"/>
+      <c r="K287" s="3"/>
     </row>
     <row r="288" spans="11:11">
-      <c r="K288" s="61"/>
+      <c r="K288" s="3"/>
     </row>
     <row r="289" spans="11:11">
-      <c r="K289" s="61"/>
+      <c r="K289" s="3"/>
     </row>
     <row r="290" spans="11:11">
-      <c r="K290" s="61"/>
+      <c r="K290" s="3"/>
     </row>
     <row r="291" spans="11:11">
-      <c r="K291" s="61"/>
+      <c r="K291" s="3"/>
     </row>
     <row r="292" spans="11:11">
-      <c r="K292" s="61"/>
+      <c r="K292" s="3"/>
     </row>
     <row r="293" spans="11:11">
-      <c r="K293" s="61"/>
+      <c r="K293" s="3"/>
     </row>
     <row r="294" spans="11:11">
-      <c r="K294" s="61"/>
+      <c r="K294" s="3"/>
     </row>
     <row r="295" spans="11:11">
-      <c r="K295" s="61"/>
+      <c r="K295" s="3"/>
     </row>
     <row r="296" spans="11:11">
-      <c r="K296" s="61"/>
+      <c r="K296" s="3"/>
     </row>
     <row r="297" spans="11:11">
-      <c r="K297" s="61"/>
+      <c r="K297" s="3"/>
     </row>
     <row r="298" spans="11:11">
-      <c r="K298" s="61"/>
+      <c r="K298" s="3"/>
     </row>
     <row r="299" spans="11:11">
-      <c r="K299" s="61"/>
+      <c r="K299" s="3"/>
     </row>
     <row r="300" spans="11:11">
-      <c r="K300" s="61"/>
+      <c r="K300" s="3"/>
     </row>
     <row r="301" spans="11:11">
-      <c r="K301" s="61"/>
+      <c r="K301" s="3"/>
     </row>
     <row r="302" spans="11:11">
-      <c r="K302" s="61"/>
+      <c r="K302" s="3"/>
     </row>
     <row r="303" spans="11:11">
-      <c r="K303" s="61"/>
+      <c r="K303" s="3"/>
     </row>
     <row r="304" spans="11:11">
-      <c r="K304" s="61"/>
+      <c r="K304" s="3"/>
     </row>
     <row r="305" spans="11:11">
-      <c r="K305" s="61"/>
+      <c r="K305" s="3"/>
     </row>
     <row r="306" spans="11:11">
-      <c r="K306" s="61"/>
+      <c r="K306" s="3"/>
     </row>
     <row r="307" spans="11:11">
-      <c r="K307" s="61"/>
+      <c r="K307" s="3"/>
     </row>
     <row r="308" spans="11:11">
-      <c r="K308" s="61"/>
+      <c r="K308" s="3"/>
     </row>
     <row r="309" spans="11:11">
-      <c r="K309" s="61"/>
+      <c r="K309" s="3"/>
     </row>
     <row r="310" spans="11:11">
-      <c r="K310" s="61"/>
+      <c r="K310" s="3"/>
     </row>
     <row r="311" spans="11:11">
-      <c r="K311" s="61"/>
+      <c r="K311" s="3"/>
     </row>
     <row r="312" spans="11:11">
-      <c r="K312" s="61"/>
+      <c r="K312" s="3"/>
     </row>
     <row r="313" spans="11:11">
-      <c r="K313" s="61"/>
+      <c r="K313" s="3"/>
     </row>
     <row r="314" spans="11:11">
-      <c r="K314" s="61"/>
+      <c r="K314" s="3"/>
     </row>
     <row r="315" spans="11:11">
-      <c r="K315" s="61"/>
+      <c r="K315" s="3"/>
     </row>
     <row r="316" spans="11:11">
-      <c r="K316" s="61"/>
+      <c r="K316" s="3"/>
     </row>
     <row r="317" spans="11:11">
-      <c r="K317" s="61"/>
+      <c r="K317" s="3"/>
     </row>
     <row r="318" spans="11:11">
-      <c r="K318" s="61"/>
+      <c r="K318" s="3"/>
     </row>
     <row r="319" spans="11:11">
-      <c r="K319" s="61"/>
+      <c r="K319" s="3"/>
     </row>
     <row r="320" spans="11:11">
-      <c r="K320" s="61"/>
+      <c r="K320" s="3"/>
     </row>
     <row r="321" spans="11:11">
-      <c r="K321" s="61"/>
+      <c r="K321" s="3"/>
     </row>
     <row r="322" spans="11:11">
-      <c r="K322" s="61"/>
+      <c r="K322" s="3"/>
     </row>
     <row r="323" spans="11:11">
-      <c r="K323" s="61"/>
+      <c r="K323" s="3"/>
     </row>
     <row r="324" spans="11:11">
-      <c r="K324" s="61"/>
+      <c r="K324" s="3"/>
     </row>
     <row r="325" spans="11:11">
-      <c r="K325" s="61"/>
+      <c r="K325" s="3"/>
     </row>
     <row r="326" spans="11:11">
-      <c r="K326" s="61"/>
+      <c r="K326" s="3"/>
     </row>
     <row r="327" spans="11:11">
-      <c r="K327" s="61"/>
+      <c r="K327" s="3"/>
     </row>
     <row r="328" spans="11:11">
-      <c r="K328" s="61"/>
+      <c r="K328" s="3"/>
     </row>
     <row r="329" spans="11:11">
-      <c r="K329" s="61"/>
+      <c r="K329" s="3"/>
     </row>
     <row r="330" spans="11:11">
-      <c r="K330" s="61"/>
+      <c r="K330" s="3"/>
     </row>
     <row r="331" spans="11:11">
-      <c r="K331" s="61"/>
+      <c r="K331" s="3"/>
     </row>
     <row r="332" spans="11:11">
-      <c r="K332" s="61"/>
+      <c r="K332" s="3"/>
     </row>
     <row r="333" spans="11:11">
-      <c r="K333" s="61"/>
+      <c r="K333" s="3"/>
     </row>
     <row r="334" spans="11:11">
-      <c r="K334" s="61"/>
+      <c r="K334" s="3"/>
     </row>
     <row r="335" spans="11:11">
-      <c r="K335" s="61"/>
+      <c r="K335" s="3"/>
     </row>
     <row r="336" spans="11:11">
-      <c r="K336" s="61"/>
+      <c r="K336" s="3"/>
     </row>
     <row r="337" spans="11:11">
-      <c r="K337" s="61"/>
+      <c r="K337" s="3"/>
     </row>
     <row r="338" spans="11:11">
-      <c r="K338" s="61"/>
+      <c r="K338" s="3"/>
     </row>
     <row r="339" spans="11:11">
-      <c r="K339" s="61"/>
+      <c r="K339" s="3"/>
     </row>
     <row r="340" spans="11:11">
-      <c r="K340" s="61"/>
+      <c r="K340" s="3"/>
     </row>
     <row r="341" spans="11:11">
-      <c r="K341" s="61"/>
+      <c r="K341" s="3"/>
     </row>
     <row r="342" spans="11:11">
-      <c r="K342" s="61"/>
+      <c r="K342" s="3"/>
     </row>
     <row r="343" spans="11:11">
-      <c r="K343" s="61"/>
+      <c r="K343" s="3"/>
     </row>
     <row r="344" spans="11:11">
-      <c r="K344" s="61"/>
+      <c r="K344" s="3"/>
     </row>
     <row r="345" spans="11:11">
-      <c r="K345" s="61"/>
+      <c r="K345" s="3"/>
     </row>
     <row r="346" spans="11:11">
-      <c r="K346" s="61"/>
+      <c r="K346" s="3"/>
     </row>
     <row r="347" spans="11:11">
-      <c r="K347" s="61"/>
+      <c r="K347" s="3"/>
     </row>
     <row r="348" spans="11:11">
-      <c r="K348" s="61"/>
+      <c r="K348" s="3"/>
     </row>
     <row r="349" spans="11:11">
-      <c r="K349" s="61"/>
+      <c r="K349" s="3"/>
     </row>
     <row r="350" spans="11:11">
-      <c r="K350" s="61"/>
+      <c r="K350" s="3"/>
     </row>
     <row r="351" spans="11:11">
-      <c r="K351" s="61"/>
+      <c r="K351" s="3"/>
     </row>
     <row r="352" spans="11:11">
-      <c r="K352" s="61"/>
+      <c r="K352" s="3"/>
     </row>
     <row r="353" spans="11:11">
-      <c r="K353" s="61"/>
+      <c r="K353" s="3"/>
     </row>
     <row r="354" spans="11:11">
-      <c r="K354" s="61"/>
+      <c r="K354" s="3"/>
     </row>
     <row r="355" spans="11:11">
-      <c r="K355" s="61"/>
+      <c r="K355" s="3"/>
     </row>
     <row r="356" spans="11:11">
-      <c r="K356" s="61"/>
+      <c r="K356" s="3"/>
     </row>
     <row r="357" spans="11:11">
-      <c r="K357" s="61"/>
+      <c r="K357" s="3"/>
     </row>
     <row r="358" spans="11:11">
-      <c r="K358" s="61"/>
+      <c r="K358" s="3"/>
     </row>
     <row r="359" spans="11:11">
-      <c r="K359" s="61"/>
+      <c r="K359" s="3"/>
     </row>
     <row r="360" spans="11:11">
-      <c r="K360" s="61"/>
+      <c r="K360" s="3"/>
     </row>
     <row r="361" spans="11:11">
-      <c r="K361" s="61"/>
+      <c r="K361" s="3"/>
     </row>
     <row r="362" spans="11:11">
-      <c r="K362" s="61"/>
+      <c r="K362" s="3"/>
     </row>
     <row r="363" spans="11:11">
-      <c r="K363" s="61"/>
+      <c r="K363" s="3"/>
     </row>
     <row r="364" spans="11:11">
-      <c r="K364" s="61"/>
+      <c r="K364" s="3"/>
     </row>
     <row r="365" spans="11:11">
-      <c r="K365" s="61"/>
+      <c r="K365" s="3"/>
     </row>
     <row r="366" spans="11:11">
-      <c r="K366" s="61"/>
+      <c r="K366" s="3"/>
     </row>
     <row r="367" spans="11:11">
-      <c r="K367" s="61"/>
+      <c r="K367" s="3"/>
     </row>
     <row r="368" spans="11:11">
-      <c r="K368" s="61"/>
+      <c r="K368" s="3"/>
     </row>
     <row r="369" spans="11:11">
-      <c r="K369" s="61"/>
+      <c r="K369" s="3"/>
     </row>
     <row r="370" spans="11:11">
-      <c r="K370" s="61"/>
+      <c r="K370" s="3"/>
     </row>
     <row r="371" spans="11:11">
-      <c r="K371" s="61"/>
+      <c r="K371" s="3"/>
     </row>
     <row r="372" spans="11:11">
-      <c r="K372" s="61"/>
+      <c r="K372" s="3"/>
     </row>
     <row r="373" spans="11:11">
-      <c r="K373" s="61"/>
+      <c r="K373" s="3"/>
     </row>
     <row r="374" spans="11:11">
-      <c r="K374" s="61"/>
+      <c r="K374" s="3"/>
     </row>
     <row r="375" spans="11:11">
-      <c r="K375" s="61"/>
+      <c r="K375" s="3"/>
     </row>
     <row r="376" spans="11:11">
-      <c r="K376" s="61"/>
+      <c r="K376" s="3"/>
     </row>
     <row r="377" spans="11:11">
-      <c r="K377" s="61"/>
+      <c r="K377" s="3"/>
     </row>
     <row r="378" spans="11:11">
-      <c r="K378" s="61"/>
+      <c r="K378" s="3"/>
     </row>
     <row r="379" spans="11:11">
-      <c r="K379" s="61"/>
+      <c r="K379" s="3"/>
     </row>
     <row r="380" spans="11:11">
-      <c r="K380" s="61"/>
+      <c r="K380" s="3"/>
     </row>
     <row r="381" spans="11:11">
-      <c r="K381" s="61"/>
+      <c r="K381" s="3"/>
     </row>
     <row r="382" spans="11:11">
-      <c r="K382" s="61"/>
+      <c r="K382" s="3"/>
     </row>
     <row r="383" spans="11:11">
-      <c r="K383" s="61"/>
+      <c r="K383" s="3"/>
     </row>
     <row r="384" spans="11:11">
-      <c r="K384" s="61"/>
+      <c r="K384" s="3"/>
     </row>
     <row r="385" spans="11:11">
-      <c r="K385" s="61"/>
+      <c r="K385" s="3"/>
     </row>
     <row r="386" spans="11:11">
-      <c r="K386" s="61"/>
+      <c r="K386" s="3"/>
     </row>
     <row r="387" spans="11:11">
-      <c r="K387" s="61"/>
+      <c r="K387" s="3"/>
     </row>
     <row r="388" spans="11:11">
-      <c r="K388" s="61"/>
+      <c r="K388" s="3"/>
     </row>
     <row r="389" spans="11:11">
-      <c r="K389" s="61"/>
+      <c r="K389" s="3"/>
     </row>
     <row r="390" spans="11:11">
-      <c r="K390" s="61"/>
+      <c r="K390" s="3"/>
     </row>
     <row r="391" spans="11:11">
-      <c r="K391" s="61"/>
+      <c r="K391" s="3"/>
     </row>
     <row r="392" spans="11:11">
-      <c r="K392" s="61"/>
+      <c r="K392" s="3"/>
     </row>
     <row r="393" spans="11:11">
-      <c r="K393" s="61"/>
+      <c r="K393" s="3"/>
     </row>
     <row r="394" spans="11:11">
-      <c r="K394" s="61"/>
+      <c r="K394" s="3"/>
     </row>
     <row r="395" spans="11:11">
-      <c r="K395" s="61"/>
+      <c r="K395" s="3"/>
     </row>
     <row r="396" spans="11:11">
-      <c r="K396" s="61"/>
+      <c r="K396" s="3"/>
     </row>
     <row r="397" spans="11:11">
-      <c r="K397" s="61"/>
+      <c r="K397" s="3"/>
     </row>
     <row r="398" spans="11:11">
-      <c r="K398" s="61"/>
+      <c r="K398" s="3"/>
     </row>
     <row r="399" spans="11:11">
-      <c r="K399" s="61"/>
+      <c r="K399" s="3"/>
     </row>
     <row r="400" spans="11:11">
-      <c r="K400" s="61"/>
+      <c r="K400" s="3"/>
     </row>
     <row r="401" spans="11:11">
-      <c r="K401" s="61"/>
+      <c r="K401" s="3"/>
     </row>
     <row r="402" spans="11:11">
-      <c r="K402" s="61"/>
+      <c r="K402" s="3"/>
     </row>
     <row r="403" spans="11:11">
-      <c r="K403" s="61"/>
+      <c r="K403" s="3"/>
     </row>
     <row r="404" spans="11:11">
-      <c r="K404" s="61"/>
+      <c r="K404" s="3"/>
     </row>
     <row r="405" spans="11:11">
-      <c r="K405" s="61"/>
+      <c r="K405" s="3"/>
     </row>
     <row r="406" spans="11:11">
-      <c r="K406" s="61"/>
+      <c r="K406" s="3"/>
     </row>
     <row r="407" spans="11:11">
-      <c r="K407" s="61"/>
+      <c r="K407" s="3"/>
     </row>
     <row r="408" spans="11:11">
-      <c r="K408" s="61"/>
+      <c r="K408" s="3"/>
     </row>
     <row r="409" spans="11:11">
-      <c r="K409" s="61"/>
+      <c r="K409" s="3"/>
     </row>
     <row r="410" spans="11:11">
-      <c r="K410" s="61"/>
+      <c r="K410" s="3"/>
     </row>
     <row r="411" spans="11:11">
-      <c r="K411" s="61"/>
+      <c r="K411" s="3"/>
     </row>
     <row r="412" spans="11:11">
-      <c r="K412" s="61"/>
+      <c r="K412" s="3"/>
     </row>
     <row r="413" spans="11:11">
-      <c r="K413" s="61"/>
+      <c r="K413" s="3"/>
     </row>
     <row r="414" spans="11:11">
-      <c r="K414" s="61"/>
+      <c r="K414" s="3"/>
     </row>
     <row r="415" spans="11:11">
-      <c r="K415" s="61"/>
+      <c r="K415" s="3"/>
     </row>
     <row r="416" spans="11:11">
-      <c r="K416" s="61"/>
+      <c r="K416" s="3"/>
     </row>
     <row r="417" spans="11:11">
-      <c r="K417" s="61"/>
+      <c r="K417" s="3"/>
     </row>
     <row r="418" spans="11:11">
-      <c r="K418" s="61"/>
+      <c r="K418" s="3"/>
     </row>
     <row r="419" spans="11:11">
-      <c r="K419" s="61"/>
+      <c r="K419" s="3"/>
     </row>
     <row r="420" spans="11:11">
-      <c r="K420" s="61"/>
+      <c r="K420" s="3"/>
     </row>
     <row r="421" spans="11:11">
-      <c r="K421" s="61"/>
+      <c r="K421" s="3"/>
     </row>
     <row r="422" spans="11:11">
-      <c r="K422" s="61"/>
+      <c r="K422" s="3"/>
     </row>
     <row r="423" spans="11:11">
-      <c r="K423" s="61"/>
+      <c r="K423" s="3"/>
     </row>
     <row r="424" spans="11:11">
-      <c r="K424" s="61"/>
+      <c r="K424" s="3"/>
     </row>
     <row r="425" spans="11:11">
-      <c r="K425" s="61"/>
+      <c r="K425" s="3"/>
     </row>
     <row r="426" spans="11:11">
-      <c r="K426" s="61"/>
+      <c r="K426" s="3"/>
     </row>
     <row r="427" spans="11:11">
-      <c r="K427" s="61"/>
+      <c r="K427" s="3"/>
     </row>
     <row r="428" spans="11:11">
-      <c r="K428" s="61"/>
+      <c r="K428" s="3"/>
     </row>
     <row r="429" spans="11:11">
-      <c r="K429" s="61"/>
+      <c r="K429" s="3"/>
     </row>
     <row r="430" spans="11:11">
-      <c r="K430" s="61"/>
+      <c r="K430" s="3"/>
     </row>
     <row r="431" spans="11:11">
-      <c r="K431" s="61"/>
+      <c r="K431" s="3"/>
     </row>
     <row r="432" spans="11:11">
-      <c r="K432" s="61"/>
+      <c r="K432" s="3"/>
     </row>
     <row r="433" spans="11:11">
-      <c r="K433" s="61"/>
+      <c r="K433" s="3"/>
     </row>
     <row r="434" spans="11:11">
-      <c r="K434" s="61"/>
+      <c r="K434" s="3"/>
     </row>
     <row r="435" spans="11:11">
-      <c r="K435" s="61"/>
+      <c r="K435" s="3"/>
     </row>
     <row r="436" spans="11:11">
-      <c r="K436" s="61"/>
+      <c r="K436" s="3"/>
     </row>
     <row r="437" spans="11:11">
-      <c r="K437" s="61"/>
+      <c r="K437" s="3"/>
     </row>
     <row r="438" spans="11:11">
-      <c r="K438" s="61"/>
+      <c r="K438" s="3"/>
     </row>
     <row r="439" spans="11:11">
-      <c r="K439" s="61"/>
+      <c r="K439" s="3"/>
     </row>
     <row r="440" spans="11:11">
-      <c r="K440" s="61"/>
+      <c r="K440" s="3"/>
     </row>
     <row r="441" spans="11:11">
-      <c r="K441" s="61"/>
+      <c r="K441" s="3"/>
     </row>
     <row r="442" spans="11:11">
-      <c r="K442" s="61"/>
+      <c r="K442" s="3"/>
     </row>
     <row r="443" spans="11:11">
-      <c r="K443" s="61"/>
+      <c r="K443" s="3"/>
     </row>
     <row r="444" spans="11:11">
-      <c r="K444" s="61"/>
+      <c r="K444" s="3"/>
     </row>
     <row r="445" spans="11:11">
-      <c r="K445" s="61"/>
+      <c r="K445" s="3"/>
     </row>
     <row r="446" spans="11:11">
-      <c r="K446" s="61"/>
+      <c r="K446" s="3"/>
     </row>
     <row r="447" spans="11:11">
-      <c r="K447" s="61"/>
+      <c r="K447" s="3"/>
     </row>
     <row r="448" spans="11:11">
-      <c r="K448" s="61"/>
+      <c r="K448" s="3"/>
     </row>
     <row r="449" spans="11:11">
-      <c r="K449" s="61"/>
+      <c r="K449" s="3"/>
     </row>
     <row r="450" spans="11:11">
-      <c r="K450" s="61"/>
+      <c r="K450" s="3"/>
     </row>
     <row r="451" spans="11:11">
-      <c r="K451" s="61"/>
+      <c r="K451" s="3"/>
     </row>
     <row r="452" spans="11:11">
-      <c r="K452" s="61"/>
+      <c r="K452" s="3"/>
     </row>
     <row r="453" spans="11:11">
-      <c r="K453" s="61"/>
+      <c r="K453" s="3"/>
     </row>
     <row r="454" spans="11:11">
-      <c r="K454" s="61"/>
+      <c r="K454" s="3"/>
     </row>
     <row r="455" spans="11:11">
-      <c r="K455" s="61"/>
+      <c r="K455" s="3"/>
     </row>
     <row r="456" spans="11:11">
-      <c r="K456" s="61"/>
+      <c r="K456" s="3"/>
     </row>
     <row r="457" spans="11:11">
-      <c r="K457" s="61"/>
+      <c r="K457" s="3"/>
     </row>
     <row r="458" spans="11:11">
-      <c r="K458" s="61"/>
+      <c r="K458" s="3"/>
     </row>
     <row r="459" spans="11:11">
-      <c r="K459" s="61"/>
+      <c r="K459" s="3"/>
     </row>
     <row r="460" spans="11:11">
-      <c r="K460" s="61"/>
+      <c r="K460" s="3"/>
     </row>
     <row r="461" spans="11:11">
-      <c r="K461" s="61"/>
+      <c r="K461" s="3"/>
     </row>
     <row r="462" spans="11:11">
-      <c r="K462" s="61"/>
+      <c r="K462" s="3"/>
     </row>
     <row r="463" spans="11:11">
-      <c r="K463" s="61"/>
+      <c r="K463" s="3"/>
     </row>
     <row r="464" spans="11:11">
-      <c r="K464" s="61"/>
+      <c r="K464" s="3"/>
     </row>
     <row r="465" spans="11:11">
-      <c r="K465" s="61"/>
+      <c r="K465" s="3"/>
     </row>
     <row r="466" spans="11:11">
-      <c r="K466" s="61"/>
+      <c r="K466" s="3"/>
     </row>
     <row r="467" spans="11:11">
-      <c r="K467" s="61"/>
+      <c r="K467" s="3"/>
     </row>
     <row r="468" spans="11:11">
-      <c r="K468" s="61"/>
+      <c r="K468" s="3"/>
     </row>
     <row r="469" spans="11:11">
-      <c r="K469" s="61"/>
+      <c r="K469" s="3"/>
     </row>
     <row r="470" spans="11:11">
-      <c r="K470" s="61"/>
+      <c r="K470" s="3"/>
     </row>
     <row r="471" spans="11:11">
-      <c r="K471" s="61"/>
+      <c r="K471" s="3"/>
     </row>
     <row r="472" spans="11:11">
-      <c r="K472" s="61"/>
+      <c r="K472" s="3"/>
     </row>
     <row r="473" spans="11:11">
-      <c r="K473" s="61"/>
+      <c r="K473" s="3"/>
     </row>
     <row r="474" spans="11:11">
-      <c r="K474" s="61"/>
+      <c r="K474" s="3"/>
     </row>
     <row r="475" spans="11:11">
-      <c r="K475" s="61"/>
+      <c r="K475" s="3"/>
     </row>
     <row r="476" spans="11:11">
-      <c r="K476" s="61"/>
+      <c r="K476" s="3"/>
     </row>
     <row r="477" spans="11:11">
-      <c r="K477" s="61"/>
+      <c r="K477" s="3"/>
     </row>
     <row r="478" spans="11:11">
-      <c r="K478" s="61"/>
+      <c r="K478" s="3"/>
     </row>
     <row r="479" spans="11:11">
-      <c r="K479" s="61"/>
+      <c r="K479" s="3"/>
     </row>
     <row r="480" spans="11:11">
-      <c r="K480" s="61"/>
+      <c r="K480" s="3"/>
     </row>
     <row r="481" spans="11:11">
-      <c r="K481" s="61"/>
+      <c r="K481" s="3"/>
     </row>
     <row r="482" spans="11:11">
-      <c r="K482" s="61"/>
+      <c r="K482" s="3"/>
     </row>
     <row r="483" spans="11:11">
-      <c r="K483" s="61"/>
+      <c r="K483" s="3"/>
     </row>
     <row r="484" spans="11:11">
-      <c r="K484" s="61"/>
+      <c r="K484" s="3"/>
     </row>
     <row r="485" spans="11:11">
-      <c r="K485" s="61"/>
+      <c r="K485" s="3"/>
     </row>
     <row r="486" spans="11:11">
-      <c r="K486" s="61"/>
+      <c r="K486" s="3"/>
     </row>
     <row r="487" spans="11:11">
-      <c r="K487" s="61"/>
+      <c r="K487" s="3"/>
     </row>
     <row r="488" spans="11:11">
-      <c r="K488" s="61"/>
+      <c r="K488" s="3"/>
     </row>
     <row r="489" spans="11:11">
-      <c r="K489" s="61"/>
+      <c r="K489" s="3"/>
     </row>
     <row r="490" spans="11:11">
-      <c r="K490" s="61"/>
+      <c r="K490" s="3"/>
     </row>
     <row r="491" spans="11:11">
-      <c r="K491" s="61"/>
+      <c r="K491" s="3"/>
     </row>
     <row r="492" spans="11:11">
-      <c r="K492" s="61"/>
+      <c r="K492" s="3"/>
     </row>
     <row r="493" spans="11:11">
-      <c r="K493" s="61"/>
+      <c r="K493" s="3"/>
     </row>
     <row r="494" spans="11:11">
-      <c r="K494" s="61"/>
+      <c r="K494" s="3"/>
     </row>
     <row r="495" spans="11:11">
-      <c r="K495" s="61"/>
+      <c r="K495" s="3"/>
     </row>
     <row r="496" spans="11:11">
-      <c r="K496" s="61"/>
+      <c r="K496" s="3"/>
     </row>
     <row r="497" spans="11:11">
-      <c r="K497" s="61"/>
+      <c r="K497" s="3"/>
     </row>
     <row r="498" spans="11:11">
-      <c r="K498" s="61"/>
+      <c r="K498" s="3"/>
     </row>
     <row r="499" spans="11:11">
-      <c r="K499" s="61"/>
+      <c r="K499" s="3"/>
     </row>
     <row r="500" spans="11:11">
-      <c r="K500" s="61"/>
+      <c r="K500" s="3"/>
     </row>
     <row r="501" spans="11:11">
-      <c r="K501" s="61"/>
+      <c r="K501" s="3"/>
     </row>
     <row r="502" spans="11:11">
-      <c r="K502" s="61"/>
+      <c r="K502" s="3"/>
     </row>
     <row r="503" spans="11:11">
-      <c r="K503" s="61"/>
+      <c r="K503" s="3"/>
     </row>
     <row r="504" spans="11:11">
-      <c r="K504" s="61"/>
+      <c r="K504" s="3"/>
     </row>
     <row r="505" spans="11:11">
-      <c r="K505" s="61"/>
+      <c r="K505" s="3"/>
     </row>
     <row r="506" spans="11:11">
-      <c r="K506" s="61"/>
+      <c r="K506" s="3"/>
     </row>
     <row r="507" spans="11:11">
-      <c r="K507" s="61"/>
+      <c r="K507" s="3"/>
     </row>
     <row r="508" spans="11:11">
-      <c r="K508" s="61"/>
+      <c r="K508" s="3"/>
     </row>
     <row r="509" spans="11:11">
-      <c r="K509" s="61"/>
+      <c r="K509" s="3"/>
     </row>
     <row r="510" spans="11:11">
-      <c r="K510" s="61"/>
+      <c r="K510" s="3"/>
     </row>
     <row r="511" spans="11:11">
-      <c r="K511" s="61"/>
+      <c r="K511" s="3"/>
     </row>
     <row r="512" spans="11:11">
-      <c r="K512" s="61"/>
+      <c r="K512" s="3"/>
     </row>
     <row r="513" spans="11:11">
-      <c r="K513" s="61"/>
+      <c r="K513" s="3"/>
     </row>
     <row r="514" spans="11:11">
-      <c r="K514" s="61"/>
+      <c r="K514" s="3"/>
     </row>
     <row r="515" spans="11:11">
-      <c r="K515" s="61"/>
+      <c r="K515" s="3"/>
     </row>
     <row r="516" spans="11:11">
-      <c r="K516" s="61"/>
+      <c r="K516" s="3"/>
     </row>
     <row r="517" spans="11:11">
-      <c r="K517" s="61"/>
+      <c r="K517" s="3"/>
     </row>
     <row r="518" spans="11:11">
-      <c r="K518" s="61"/>
+      <c r="K518" s="3"/>
     </row>
     <row r="519" spans="11:11">
-      <c r="K519" s="61"/>
+      <c r="K519" s="3"/>
     </row>
     <row r="520" spans="11:11">
-      <c r="K520" s="61"/>
+      <c r="K520" s="3"/>
     </row>
     <row r="521" spans="11:11">
-      <c r="K521" s="61"/>
+      <c r="K521" s="3"/>
     </row>
     <row r="522" spans="11:11">
-      <c r="K522" s="61"/>
+      <c r="K522" s="3"/>
     </row>
     <row r="523" spans="11:11">
-      <c r="K523" s="61"/>
+      <c r="K523" s="3"/>
     </row>
     <row r="524" spans="11:11">
-      <c r="K524" s="61"/>
+      <c r="K524" s="3"/>
     </row>
     <row r="525" spans="11:11">
-      <c r="K525" s="61"/>
+      <c r="K525" s="3"/>
     </row>
     <row r="526" spans="11:11">
-      <c r="K526" s="61"/>
+      <c r="K526" s="3"/>
     </row>
     <row r="527" spans="11:11">
-      <c r="K527" s="61"/>
+      <c r="K527" s="3"/>
     </row>
     <row r="528" spans="11:11">
-      <c r="K528" s="61"/>
+      <c r="K528" s="3"/>
     </row>
     <row r="529" spans="11:11">
-      <c r="K529" s="61"/>
+      <c r="K529" s="3"/>
     </row>
     <row r="530" spans="11:11">
-      <c r="K530" s="61"/>
+      <c r="K530" s="3"/>
     </row>
     <row r="531" spans="11:11">
-      <c r="K531" s="61"/>
+      <c r="K531" s="3"/>
     </row>
     <row r="532" spans="11:11">
-      <c r="K532" s="61"/>
+      <c r="K532" s="3"/>
     </row>
     <row r="533" spans="11:11">
-      <c r="K533" s="61"/>
+      <c r="K533" s="3"/>
     </row>
     <row r="534" spans="11:11">
-      <c r="K534" s="61"/>
+      <c r="K534" s="3"/>
     </row>
     <row r="535" spans="11:11">
-      <c r="K535" s="61"/>
+      <c r="K535" s="3"/>
     </row>
     <row r="536" spans="11:11">
-      <c r="K536" s="61"/>
+      <c r="K536" s="3"/>
     </row>
     <row r="537" spans="11:11">
-      <c r="K537" s="61"/>
+      <c r="K537" s="3"/>
     </row>
     <row r="538" spans="11:11">
-      <c r="K538" s="61"/>
+      <c r="K538" s="3"/>
     </row>
     <row r="539" spans="11:11">
-      <c r="K539" s="61"/>
+      <c r="K539" s="3"/>
     </row>
     <row r="540" spans="11:11">
-      <c r="K540" s="61"/>
+      <c r="K540" s="3"/>
     </row>
     <row r="541" spans="11:11">
-      <c r="K541" s="61"/>
+      <c r="K541" s="3"/>
     </row>
     <row r="542" spans="11:11">
-      <c r="K542" s="61"/>
+      <c r="K542" s="3"/>
     </row>
     <row r="543" spans="11:11">
-      <c r="K543" s="61"/>
+      <c r="K543" s="3"/>
     </row>
     <row r="544" spans="11:11">
-      <c r="K544" s="61"/>
+      <c r="K544" s="3"/>
     </row>
     <row r="545" spans="11:11">
-      <c r="K545" s="61"/>
+      <c r="K545" s="3"/>
     </row>
     <row r="546" spans="11:11">
-      <c r="K546" s="61"/>
+      <c r="K546" s="3"/>
     </row>
     <row r="547" spans="11:11">
-      <c r="K547" s="61"/>
+      <c r="K547" s="3"/>
     </row>
     <row r="548" spans="11:11">
-      <c r="K548" s="61"/>
+      <c r="K548" s="3"/>
     </row>
     <row r="549" spans="11:11">
-      <c r="K549" s="61"/>
+      <c r="K549" s="3"/>
     </row>
     <row r="550" spans="11:11">
-      <c r="K550" s="61"/>
+      <c r="K550" s="3"/>
     </row>
     <row r="551" spans="11:11">
-      <c r="K551" s="61"/>
+      <c r="K551" s="3"/>
     </row>
     <row r="552" spans="11:11">
-      <c r="K552" s="61"/>
+      <c r="K552" s="3"/>
     </row>
     <row r="553" spans="11:11">
-      <c r="K553" s="61"/>
+      <c r="K553" s="3"/>
     </row>
     <row r="554" spans="11:11">
-      <c r="K554" s="61"/>
+      <c r="K554" s="3"/>
     </row>
     <row r="555" spans="11:11">
-      <c r="K555" s="61"/>
+      <c r="K555" s="3"/>
     </row>
     <row r="556" spans="11:11">
-      <c r="K556" s="61"/>
+      <c r="K556" s="3"/>
     </row>
     <row r="557" spans="11:11">
-      <c r="K557" s="61"/>
+      <c r="K557" s="3"/>
     </row>
     <row r="558" spans="11:11">
-      <c r="K558" s="61"/>
+      <c r="K558" s="3"/>
     </row>
     <row r="559" spans="11:11">
-      <c r="K559" s="61"/>
+      <c r="K559" s="3"/>
     </row>
     <row r="560" spans="11:11">
-      <c r="K560" s="61"/>
+      <c r="K560" s="3"/>
     </row>
     <row r="561" spans="11:11">
-      <c r="K561" s="61"/>
+      <c r="K561" s="3"/>
     </row>
     <row r="562" spans="11:11">
-      <c r="K562" s="61"/>
+      <c r="K562" s="3"/>
     </row>
     <row r="563" spans="11:11">
-      <c r="K563" s="61"/>
+      <c r="K563" s="3"/>
     </row>
     <row r="564" spans="11:11">
-      <c r="K564" s="61"/>
+      <c r="K564" s="3"/>
     </row>
     <row r="565" spans="11:11">
-      <c r="K565" s="61"/>
+      <c r="K565" s="3"/>
     </row>
     <row r="566" spans="11:11">
-      <c r="K566" s="61"/>
+      <c r="K566" s="3"/>
     </row>
     <row r="567" spans="11:11">
-      <c r="K567" s="61"/>
+      <c r="K567" s="3"/>
     </row>
     <row r="568" spans="11:11">
-      <c r="K568" s="61"/>
+      <c r="K568" s="3"/>
     </row>
     <row r="569" spans="11:11">
-      <c r="K569" s="61"/>
+      <c r="K569" s="3"/>
     </row>
     <row r="570" spans="11:11">
-      <c r="K570" s="61"/>
+      <c r="K570" s="3"/>
     </row>
     <row r="571" spans="11:11">
-      <c r="K571" s="61"/>
+      <c r="K571" s="3"/>
     </row>
     <row r="572" spans="11:11">
-      <c r="K572" s="61"/>
+      <c r="K572" s="3"/>
     </row>
     <row r="573" spans="11:11">
-      <c r="K573" s="61"/>
+      <c r="K573" s="3"/>
     </row>
     <row r="574" spans="11:11">
-      <c r="K574" s="61"/>
+      <c r="K574" s="3"/>
     </row>
     <row r="575" spans="11:11">
-      <c r="K575" s="61"/>
+      <c r="K575" s="3"/>
     </row>
     <row r="576" spans="11:11">
-      <c r="K576" s="61"/>
+      <c r="K576" s="3"/>
     </row>
     <row r="577" spans="11:11">
-      <c r="K577" s="61"/>
+      <c r="K577" s="3"/>
     </row>
     <row r="578" spans="11:11">
-      <c r="K578" s="61"/>
+      <c r="K578" s="3"/>
     </row>
     <row r="579" spans="11:11">
-      <c r="K579" s="61"/>
+      <c r="K579" s="3"/>
     </row>
     <row r="580" spans="11:11">
-      <c r="K580" s="61"/>
+      <c r="K580" s="3"/>
     </row>
     <row r="581" spans="11:11">
-      <c r="K581" s="61"/>
+      <c r="K581" s="3"/>
     </row>
     <row r="582" spans="11:11">
-      <c r="K582" s="61"/>
+      <c r="K582" s="3"/>
     </row>
     <row r="583" spans="11:11">
-      <c r="K583" s="61"/>
+      <c r="K583" s="3"/>
     </row>
     <row r="584" spans="11:11">
-      <c r="K584" s="61"/>
+      <c r="K584" s="3"/>
     </row>
     <row r="585" spans="11:11">
-      <c r="K585" s="61"/>
+      <c r="K585" s="3"/>
     </row>
     <row r="586" spans="11:11">
-      <c r="K586" s="61"/>
+      <c r="K586" s="3"/>
     </row>
     <row r="587" spans="11:11">
-      <c r="K587" s="61"/>
+      <c r="K587" s="3"/>
     </row>
     <row r="588" spans="11:11">
-      <c r="K588" s="61"/>
+      <c r="K588" s="3"/>
     </row>
     <row r="589" spans="11:11">
-      <c r="K589" s="61"/>
+      <c r="K589" s="3"/>
     </row>
     <row r="590" spans="11:11">
-      <c r="K590" s="61"/>
+      <c r="K590" s="3"/>
     </row>
     <row r="591" spans="11:11">
-      <c r="K591" s="61"/>
+      <c r="K591" s="3"/>
     </row>
     <row r="592" spans="11:11">
-      <c r="K592" s="61"/>
+      <c r="K592" s="3"/>
     </row>
     <row r="593" spans="11:11">
-      <c r="K593" s="61"/>
+      <c r="K593" s="3"/>
     </row>
     <row r="594" spans="11:11">
-      <c r="K594" s="61"/>
+      <c r="K594" s="3"/>
     </row>
     <row r="595" spans="11:11">
-      <c r="K595" s="61"/>
+      <c r="K595" s="3"/>
     </row>
     <row r="596" spans="11:11">
-      <c r="K596" s="61"/>
+      <c r="K596" s="3"/>
     </row>
     <row r="597" spans="11:11">
-      <c r="K597" s="61"/>
+      <c r="K597" s="3"/>
     </row>
     <row r="598" spans="11:11">
-      <c r="K598" s="61"/>
+      <c r="K598" s="3"/>
     </row>
     <row r="599" spans="11:11">
-      <c r="K599" s="61"/>
+      <c r="K599" s="3"/>
     </row>
     <row r="600" spans="11:11">
-      <c r="K600" s="61"/>
+      <c r="K600" s="3"/>
     </row>
     <row r="601" spans="11:11">
-      <c r="K601" s="61"/>
+      <c r="K601" s="3"/>
     </row>
     <row r="602" spans="11:11">
-      <c r="K602" s="61"/>
+      <c r="K602" s="3"/>
     </row>
     <row r="603" spans="11:11">
-      <c r="K603" s="61"/>
+      <c r="K603" s="3"/>
     </row>
     <row r="604" spans="11:11">
-      <c r="K604" s="61"/>
+      <c r="K604" s="3"/>
     </row>
     <row r="605" spans="11:11">
-      <c r="K605" s="61"/>
+      <c r="K605" s="3"/>
     </row>
     <row r="606" spans="11:11">
-      <c r="K606" s="61"/>
+      <c r="K606" s="3"/>
     </row>
     <row r="607" spans="11:11">
-      <c r="K607" s="61"/>
+      <c r="K607" s="3"/>
     </row>
     <row r="608" spans="11:11">
-      <c r="K608" s="61"/>
+      <c r="K608" s="3"/>
     </row>
     <row r="609" spans="11:11">
-      <c r="K609" s="61"/>
+      <c r="K609" s="3"/>
     </row>
     <row r="610" spans="11:11">
-      <c r="K610" s="61"/>
+      <c r="K610" s="3"/>
     </row>
     <row r="611" spans="11:11">
-      <c r="K611" s="61"/>
+      <c r="K611" s="3"/>
     </row>
     <row r="612" spans="11:11">
-      <c r="K612" s="61"/>
+      <c r="K612" s="3"/>
     </row>
     <row r="613" spans="11:11">
-      <c r="K613" s="61"/>
+      <c r="K613" s="3"/>
     </row>
     <row r="614" spans="11:11">
-      <c r="K614" s="61"/>
+      <c r="K614" s="3"/>
     </row>
     <row r="615" spans="11:11">
-      <c r="K615" s="61"/>
+      <c r="K615" s="3"/>
     </row>
     <row r="616" spans="11:11">
-      <c r="K616" s="61"/>
+      <c r="K616" s="3"/>
     </row>
     <row r="617" spans="11:11">
-      <c r="K617" s="61"/>
+      <c r="K617" s="3"/>
     </row>
     <row r="618" spans="11:11">
-      <c r="K618" s="61"/>
+      <c r="K618" s="3"/>
     </row>
     <row r="619" spans="11:11">
-      <c r="K619" s="61"/>
+      <c r="K619" s="3"/>
     </row>
     <row r="620" spans="11:11">
-      <c r="K620" s="61"/>
+      <c r="K620" s="3"/>
     </row>
     <row r="621" spans="11:11">
-      <c r="K621" s="61"/>
+      <c r="K621" s="3"/>
     </row>
     <row r="622" spans="11:11">
-      <c r="K622" s="61"/>
+      <c r="K622" s="3"/>
     </row>
     <row r="623" spans="11:11">
-      <c r="K623" s="61"/>
+      <c r="K623" s="3"/>
     </row>
     <row r="624" spans="11:11">
-      <c r="K624" s="61"/>
+      <c r="K624" s="3"/>
     </row>
     <row r="625" spans="11:11">
-      <c r="K625" s="61"/>
+      <c r="K625" s="3"/>
     </row>
     <row r="626" spans="11:11">
-      <c r="K626" s="61"/>
+      <c r="K626" s="3"/>
     </row>
     <row r="627" spans="11:11">
-      <c r="K627" s="61"/>
+      <c r="K627" s="3"/>
     </row>
     <row r="628" spans="11:11">
-      <c r="K628" s="61"/>
+      <c r="K628" s="3"/>
     </row>
     <row r="629" spans="11:11">
-      <c r="K629" s="61"/>
+      <c r="K629" s="3"/>
     </row>
     <row r="630" spans="11:11">
-      <c r="K630" s="61"/>
+      <c r="K630" s="3"/>
     </row>
     <row r="631" spans="11:11">
-      <c r="K631" s="61"/>
+      <c r="K631" s="3"/>
     </row>
     <row r="632" spans="11:11">
-      <c r="K632" s="61"/>
+      <c r="K632" s="3"/>
     </row>
     <row r="633" spans="11:11">
-      <c r="K633" s="61"/>
+      <c r="K633" s="3"/>
     </row>
     <row r="634" spans="11:11">
-      <c r="K634" s="61"/>
+      <c r="K634" s="3"/>
     </row>
     <row r="635" spans="11:11">
-      <c r="K635" s="61"/>
+      <c r="K635" s="3"/>
     </row>
     <row r="636" spans="11:11">
-      <c r="K636" s="61"/>
+      <c r="K636" s="3"/>
     </row>
     <row r="637" spans="11:11">
-      <c r="K637" s="61"/>
+      <c r="K637" s="3"/>
     </row>
     <row r="638" spans="11:11">
-      <c r="K638" s="61"/>
+      <c r="K638" s="3"/>
     </row>
     <row r="639" spans="11:11">
-      <c r="K639" s="61"/>
+      <c r="K639" s="3"/>
     </row>
     <row r="640" spans="11:11">
-      <c r="K640" s="61"/>
+      <c r="K640" s="3"/>
     </row>
     <row r="641" spans="11:11">
-      <c r="K641" s="61"/>
+      <c r="K641" s="3"/>
     </row>
     <row r="642" spans="11:11">
-      <c r="K642" s="61"/>
+      <c r="K642" s="3"/>
     </row>
     <row r="643" spans="11:11">
-      <c r="K643" s="61"/>
+      <c r="K643" s="3"/>
     </row>
     <row r="644" spans="11:11">
-      <c r="K644" s="61"/>
+      <c r="K644" s="3"/>
     </row>
     <row r="645" spans="11:11">
-      <c r="K645" s="61"/>
+      <c r="K645" s="3"/>
     </row>
     <row r="646" spans="11:11">
-      <c r="K646" s="61"/>
+      <c r="K646" s="3"/>
     </row>
     <row r="647" spans="11:11">
-      <c r="K647" s="61"/>
+      <c r="K647" s="3"/>
     </row>
     <row r="648" spans="11:11">
-      <c r="K648" s="61"/>
+      <c r="K648" s="3"/>
     </row>
     <row r="649" spans="11:11">
-      <c r="K649" s="61"/>
+      <c r="K649" s="3"/>
     </row>
     <row r="650" spans="11:11">
-      <c r="K650" s="61"/>
+      <c r="K650" s="3"/>
     </row>
     <row r="651" spans="11:11">
-      <c r="K651" s="61"/>
+      <c r="K651" s="3"/>
     </row>
     <row r="652" spans="11:11">
-      <c r="K652" s="61"/>
+      <c r="K652" s="3"/>
     </row>
     <row r="653" spans="11:11">
-      <c r="K653" s="61"/>
+      <c r="K653" s="3"/>
     </row>
     <row r="654" spans="11:11">
-      <c r="K654" s="61"/>
+      <c r="K654" s="3"/>
     </row>
     <row r="655" spans="11:11">
-      <c r="K655" s="61"/>
+      <c r="K655" s="3"/>
     </row>
     <row r="656" spans="11:11">
-      <c r="K656" s="61"/>
+      <c r="K656" s="3"/>
     </row>
     <row r="657" spans="11:11">
-      <c r="K657" s="61"/>
+      <c r="K657" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -25305,7 +26626,7 @@
   <dimension ref="A1:K689"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -25357,36 +26678,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="59" customFormat="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:11" s="62" customFormat="1" ht="37.5">
+      <c r="A2" s="56" t="s">
+        <v>821</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>822</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>826</v>
-      </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="G2" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="59">
         <v>45907</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="66"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="3"/>
@@ -27834,7 +29157,7 @@
   <dimension ref="A1:K689"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -27849,6 +29172,7 @@
     <col min="8" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="18">
@@ -27882,42 +29206,42 @@
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="59" customFormat="1" ht="37.5">
-      <c r="A2" s="60" t="s">
-        <v>828</v>
-      </c>
-      <c r="B2" s="61" t="s">
+    <row r="2" spans="1:11" s="62" customFormat="1" ht="37.5">
+      <c r="A2" s="56" t="s">
+        <v>827</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>822</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>823</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>824</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>825</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="58" t="s">
+        <v>826</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="G2" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="59">
         <v>45907</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="66"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="3"/>
@@ -27928,7 +29252,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="48"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="3"/>
@@ -27939,7 +29263,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="48"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="3"/>
@@ -27950,7 +29274,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="48"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="3"/>
@@ -27961,7 +29285,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="3"/>
@@ -27972,7 +29296,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="48"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="3"/>
@@ -27983,7 +29307,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="48"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="3"/>
@@ -27994,7 +29318,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="48"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="3"/>
@@ -28005,7 +29329,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="48"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="3"/>
@@ -28016,7 +29340,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="48"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="3"/>
@@ -28027,7 +29351,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="4"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="48"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="3"/>
@@ -28038,7 +29362,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="48"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="3"/>
@@ -28049,7 +29373,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="48"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="3"/>
@@ -28060,7 +29384,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="4"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="48"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="3"/>
@@ -28071,7 +29395,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="4"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="48"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="3"/>
@@ -28082,7 +29406,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="4"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="48"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="3"/>
@@ -28093,7 +29417,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="4"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="48"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3"/>
@@ -28104,7 +29428,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="48"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="3"/>
@@ -28115,7 +29439,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="3"/>
@@ -28126,7 +29450,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="48"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="3"/>
@@ -28137,7 +29461,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="48"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="3"/>
@@ -28148,7 +29472,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="4"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="48"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="3"/>
@@ -28159,7 +29483,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="4"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="48"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="3"/>
@@ -28170,7 +29494,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="4"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="48"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="3"/>
@@ -28181,7 +29505,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="4"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="48"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="3"/>
@@ -28192,7 +29516,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="48"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="3"/>
@@ -28203,7 +29527,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="4"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="48"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="3"/>
@@ -28214,7 +29538,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="48"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="3"/>
@@ -28225,7 +29549,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="4"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="48"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="3"/>
@@ -28236,7 +29560,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="4"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="48"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="3"/>
@@ -28247,7 +29571,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="4"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="48"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="3"/>
@@ -28258,7 +29582,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="4"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="48"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="3"/>
@@ -28269,7 +29593,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="4"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="49"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="3"/>
@@ -28280,7 +29604,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="4"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="49"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="3"/>
@@ -28291,7 +29615,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="4"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="49"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="3"/>
@@ -28302,7 +29626,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="4"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="48"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="3"/>
@@ -28313,7 +29637,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="4"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="48"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="3"/>
@@ -28324,7 +29648,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="4"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="48"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="3"/>
@@ -28335,7 +29659,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="4"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="48"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="3"/>
@@ -28346,7 +29670,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="4"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="3"/>
@@ -28357,7 +29681,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="4"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="48"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="3"/>
@@ -28368,7 +29692,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="4"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="48"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="3"/>
@@ -28379,7 +29703,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="4"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="48"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="3"/>
@@ -28390,7 +29714,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="4"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="48"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="3"/>
@@ -28401,7 +29725,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="4"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="48"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="3"/>
@@ -28412,7 +29736,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="4"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="48"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="3"/>
@@ -28423,7 +29747,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="4"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="48"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="4:11">
       <c r="D49" s="24"/>
@@ -28431,1927 +29755,1927 @@
       <c r="J49" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K49" s="48"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="4:11">
-      <c r="K50" s="48"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="4:11">
-      <c r="K51" s="48"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="4:11">
-      <c r="K52" s="48"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="4:11">
-      <c r="K53" s="48"/>
+      <c r="K53" s="4"/>
     </row>
     <row r="54" spans="4:11">
-      <c r="K54" s="48"/>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="4:11">
-      <c r="K55" s="48"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="4:11">
-      <c r="K56" s="48"/>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="4:11">
-      <c r="K57" s="48"/>
+      <c r="K57" s="4"/>
     </row>
     <row r="58" spans="4:11">
-      <c r="K58" s="48"/>
+      <c r="K58" s="4"/>
     </row>
     <row r="59" spans="4:11">
-      <c r="K59" s="48"/>
+      <c r="K59" s="4"/>
     </row>
     <row r="60" spans="4:11">
-      <c r="K60" s="48"/>
+      <c r="K60" s="4"/>
     </row>
     <row r="61" spans="4:11">
-      <c r="K61" s="48"/>
+      <c r="K61" s="4"/>
     </row>
     <row r="62" spans="4:11">
-      <c r="K62" s="48"/>
+      <c r="K62" s="4"/>
     </row>
     <row r="63" spans="4:11">
-      <c r="K63" s="48"/>
+      <c r="K63" s="4"/>
     </row>
     <row r="64" spans="4:11">
-      <c r="K64" s="48"/>
+      <c r="K64" s="4"/>
     </row>
     <row r="65" spans="11:11">
-      <c r="K65" s="48"/>
+      <c r="K65" s="4"/>
     </row>
     <row r="66" spans="11:11">
-      <c r="K66" s="48"/>
+      <c r="K66" s="4"/>
     </row>
     <row r="67" spans="11:11">
-      <c r="K67" s="48"/>
+      <c r="K67" s="4"/>
     </row>
     <row r="68" spans="11:11">
-      <c r="K68" s="48"/>
+      <c r="K68" s="4"/>
     </row>
     <row r="69" spans="11:11">
-      <c r="K69" s="48"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="11:11">
-      <c r="K70" s="48"/>
+      <c r="K70" s="4"/>
     </row>
     <row r="71" spans="11:11">
-      <c r="K71" s="48"/>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="11:11">
-      <c r="K72" s="48"/>
+      <c r="K72" s="4"/>
     </row>
     <row r="73" spans="11:11">
-      <c r="K73" s="48"/>
+      <c r="K73" s="4"/>
     </row>
     <row r="74" spans="11:11">
-      <c r="K74" s="48"/>
+      <c r="K74" s="4"/>
     </row>
     <row r="75" spans="11:11">
-      <c r="K75" s="48"/>
+      <c r="K75" s="4"/>
     </row>
     <row r="76" spans="11:11">
-      <c r="K76" s="48"/>
+      <c r="K76" s="4"/>
     </row>
     <row r="77" spans="11:11">
-      <c r="K77" s="48"/>
+      <c r="K77" s="4"/>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="48"/>
+      <c r="K78" s="4"/>
     </row>
     <row r="79" spans="11:11">
-      <c r="K79" s="48"/>
+      <c r="K79" s="4"/>
     </row>
     <row r="80" spans="11:11">
-      <c r="K80" s="48"/>
+      <c r="K80" s="4"/>
     </row>
     <row r="81" spans="11:11">
-      <c r="K81" s="48"/>
+      <c r="K81" s="4"/>
     </row>
     <row r="82" spans="11:11">
-      <c r="K82" s="48"/>
+      <c r="K82" s="4"/>
     </row>
     <row r="83" spans="11:11">
-      <c r="K83" s="48"/>
+      <c r="K83" s="4"/>
     </row>
     <row r="84" spans="11:11">
-      <c r="K84" s="48"/>
+      <c r="K84" s="4"/>
     </row>
     <row r="85" spans="11:11">
-      <c r="K85" s="48"/>
+      <c r="K85" s="4"/>
     </row>
     <row r="86" spans="11:11">
-      <c r="K86" s="48"/>
+      <c r="K86" s="4"/>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" s="48"/>
+      <c r="K87" s="4"/>
     </row>
     <row r="88" spans="11:11">
-      <c r="K88" s="48"/>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="48"/>
+      <c r="K89" s="4"/>
     </row>
     <row r="90" spans="11:11">
-      <c r="K90" s="48"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="11:11">
-      <c r="K91" s="48"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" spans="11:11">
-      <c r="K92" s="48"/>
+      <c r="K92" s="4"/>
     </row>
     <row r="93" spans="11:11">
-      <c r="K93" s="48"/>
+      <c r="K93" s="4"/>
     </row>
     <row r="94" spans="11:11">
-      <c r="K94" s="48"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="11:11">
-      <c r="K95" s="48"/>
+      <c r="K95" s="4"/>
     </row>
     <row r="96" spans="11:11">
-      <c r="K96" s="48"/>
+      <c r="K96" s="4"/>
     </row>
     <row r="97" spans="11:11">
-      <c r="K97" s="48"/>
+      <c r="K97" s="4"/>
     </row>
     <row r="98" spans="11:11">
-      <c r="K98" s="48"/>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="11:11">
-      <c r="K99" s="48"/>
+      <c r="K99" s="4"/>
     </row>
     <row r="100" spans="11:11">
-      <c r="K100" s="48"/>
+      <c r="K100" s="4"/>
     </row>
     <row r="101" spans="11:11">
-      <c r="K101" s="48"/>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="11:11">
-      <c r="K102" s="48"/>
+      <c r="K102" s="4"/>
     </row>
     <row r="103" spans="11:11">
-      <c r="K103" s="48"/>
+      <c r="K103" s="4"/>
     </row>
     <row r="104" spans="11:11">
-      <c r="K104" s="48"/>
+      <c r="K104" s="4"/>
     </row>
     <row r="105" spans="11:11">
-      <c r="K105" s="48"/>
+      <c r="K105" s="4"/>
     </row>
     <row r="106" spans="11:11">
-      <c r="K106" s="48"/>
+      <c r="K106" s="4"/>
     </row>
     <row r="107" spans="11:11">
-      <c r="K107" s="48"/>
+      <c r="K107" s="4"/>
     </row>
     <row r="108" spans="11:11">
-      <c r="K108" s="48"/>
+      <c r="K108" s="4"/>
     </row>
     <row r="109" spans="11:11">
-      <c r="K109" s="48"/>
+      <c r="K109" s="4"/>
     </row>
     <row r="110" spans="11:11">
-      <c r="K110" s="48"/>
+      <c r="K110" s="4"/>
     </row>
     <row r="111" spans="11:11">
-      <c r="K111" s="48"/>
+      <c r="K111" s="4"/>
     </row>
     <row r="112" spans="11:11">
-      <c r="K112" s="48"/>
+      <c r="K112" s="4"/>
     </row>
     <row r="113" spans="11:11">
-      <c r="K113" s="48"/>
+      <c r="K113" s="4"/>
     </row>
     <row r="114" spans="11:11">
-      <c r="K114" s="48"/>
+      <c r="K114" s="4"/>
     </row>
     <row r="115" spans="11:11">
-      <c r="K115" s="48"/>
+      <c r="K115" s="4"/>
     </row>
     <row r="116" spans="11:11">
-      <c r="K116" s="48"/>
+      <c r="K116" s="4"/>
     </row>
     <row r="117" spans="11:11">
-      <c r="K117" s="48"/>
+      <c r="K117" s="4"/>
     </row>
     <row r="118" spans="11:11">
-      <c r="K118" s="48"/>
+      <c r="K118" s="4"/>
     </row>
     <row r="119" spans="11:11">
-      <c r="K119" s="48"/>
+      <c r="K119" s="4"/>
     </row>
     <row r="120" spans="11:11">
-      <c r="K120" s="48"/>
+      <c r="K120" s="4"/>
     </row>
     <row r="121" spans="11:11">
-      <c r="K121" s="48"/>
+      <c r="K121" s="4"/>
     </row>
     <row r="122" spans="11:11">
-      <c r="K122" s="48"/>
+      <c r="K122" s="4"/>
     </row>
     <row r="123" spans="11:11">
-      <c r="K123" s="48"/>
+      <c r="K123" s="4"/>
     </row>
     <row r="124" spans="11:11">
-      <c r="K124" s="48"/>
+      <c r="K124" s="4"/>
     </row>
     <row r="125" spans="11:11">
-      <c r="K125" s="48"/>
+      <c r="K125" s="4"/>
     </row>
     <row r="126" spans="11:11">
-      <c r="K126" s="48"/>
+      <c r="K126" s="4"/>
     </row>
     <row r="127" spans="11:11">
-      <c r="K127" s="48"/>
+      <c r="K127" s="4"/>
     </row>
     <row r="128" spans="11:11">
-      <c r="K128" s="48"/>
+      <c r="K128" s="4"/>
     </row>
     <row r="129" spans="11:11">
-      <c r="K129" s="48"/>
+      <c r="K129" s="4"/>
     </row>
     <row r="130" spans="11:11">
-      <c r="K130" s="48"/>
+      <c r="K130" s="4"/>
     </row>
     <row r="131" spans="11:11">
-      <c r="K131" s="48"/>
+      <c r="K131" s="4"/>
     </row>
     <row r="132" spans="11:11">
-      <c r="K132" s="48"/>
+      <c r="K132" s="4"/>
     </row>
     <row r="133" spans="11:11">
-      <c r="K133" s="48"/>
+      <c r="K133" s="4"/>
     </row>
     <row r="134" spans="11:11">
-      <c r="K134" s="48"/>
+      <c r="K134" s="4"/>
     </row>
     <row r="135" spans="11:11">
-      <c r="K135" s="48"/>
+      <c r="K135" s="4"/>
     </row>
     <row r="136" spans="11:11">
-      <c r="K136" s="48"/>
+      <c r="K136" s="4"/>
     </row>
     <row r="137" spans="11:11">
-      <c r="K137" s="48"/>
+      <c r="K137" s="4"/>
     </row>
     <row r="138" spans="11:11">
-      <c r="K138" s="48"/>
+      <c r="K138" s="4"/>
     </row>
     <row r="139" spans="11:11">
-      <c r="K139" s="48"/>
+      <c r="K139" s="4"/>
     </row>
     <row r="140" spans="11:11">
-      <c r="K140" s="48"/>
+      <c r="K140" s="4"/>
     </row>
     <row r="141" spans="11:11">
-      <c r="K141" s="48"/>
+      <c r="K141" s="4"/>
     </row>
     <row r="142" spans="11:11">
-      <c r="K142" s="48"/>
+      <c r="K142" s="4"/>
     </row>
     <row r="143" spans="11:11">
-      <c r="K143" s="48"/>
+      <c r="K143" s="4"/>
     </row>
     <row r="144" spans="11:11">
-      <c r="K144" s="48"/>
+      <c r="K144" s="4"/>
     </row>
     <row r="145" spans="11:11">
-      <c r="K145" s="48"/>
+      <c r="K145" s="4"/>
     </row>
     <row r="146" spans="11:11">
-      <c r="K146" s="48"/>
+      <c r="K146" s="4"/>
     </row>
     <row r="147" spans="11:11">
-      <c r="K147" s="48"/>
+      <c r="K147" s="4"/>
     </row>
     <row r="148" spans="11:11">
-      <c r="K148" s="48"/>
+      <c r="K148" s="4"/>
     </row>
     <row r="149" spans="11:11">
-      <c r="K149" s="48"/>
+      <c r="K149" s="4"/>
     </row>
     <row r="150" spans="11:11">
-      <c r="K150" s="48"/>
+      <c r="K150" s="4"/>
     </row>
     <row r="151" spans="11:11">
-      <c r="K151" s="48"/>
+      <c r="K151" s="4"/>
     </row>
     <row r="152" spans="11:11">
-      <c r="K152" s="48"/>
+      <c r="K152" s="4"/>
     </row>
     <row r="153" spans="11:11">
-      <c r="K153" s="48"/>
+      <c r="K153" s="4"/>
     </row>
     <row r="154" spans="11:11">
-      <c r="K154" s="48"/>
+      <c r="K154" s="4"/>
     </row>
     <row r="155" spans="11:11">
-      <c r="K155" s="48"/>
+      <c r="K155" s="4"/>
     </row>
     <row r="156" spans="11:11">
-      <c r="K156" s="48"/>
+      <c r="K156" s="4"/>
     </row>
     <row r="157" spans="11:11">
-      <c r="K157" s="48"/>
+      <c r="K157" s="4"/>
     </row>
     <row r="158" spans="11:11">
-      <c r="K158" s="48"/>
+      <c r="K158" s="4"/>
     </row>
     <row r="159" spans="11:11">
-      <c r="K159" s="48"/>
+      <c r="K159" s="4"/>
     </row>
     <row r="160" spans="11:11">
-      <c r="K160" s="48"/>
+      <c r="K160" s="4"/>
     </row>
     <row r="161" spans="11:11">
-      <c r="K161" s="48"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="11:11">
-      <c r="K162" s="48"/>
+      <c r="K162" s="4"/>
     </row>
     <row r="163" spans="11:11">
-      <c r="K163" s="48"/>
+      <c r="K163" s="4"/>
     </row>
     <row r="164" spans="11:11">
-      <c r="K164" s="48"/>
+      <c r="K164" s="4"/>
     </row>
     <row r="165" spans="11:11">
-      <c r="K165" s="48"/>
+      <c r="K165" s="4"/>
     </row>
     <row r="166" spans="11:11">
-      <c r="K166" s="48"/>
+      <c r="K166" s="4"/>
     </row>
     <row r="167" spans="11:11">
-      <c r="K167" s="48"/>
+      <c r="K167" s="4"/>
     </row>
     <row r="168" spans="11:11">
-      <c r="K168" s="48"/>
+      <c r="K168" s="4"/>
     </row>
     <row r="169" spans="11:11">
-      <c r="K169" s="48"/>
+      <c r="K169" s="4"/>
     </row>
     <row r="170" spans="11:11">
-      <c r="K170" s="48"/>
+      <c r="K170" s="4"/>
     </row>
     <row r="171" spans="11:11">
-      <c r="K171" s="48"/>
+      <c r="K171" s="4"/>
     </row>
     <row r="172" spans="11:11">
-      <c r="K172" s="48"/>
+      <c r="K172" s="4"/>
     </row>
     <row r="173" spans="11:11">
-      <c r="K173" s="48"/>
+      <c r="K173" s="4"/>
     </row>
     <row r="174" spans="11:11">
-      <c r="K174" s="48"/>
+      <c r="K174" s="4"/>
     </row>
     <row r="175" spans="11:11">
-      <c r="K175" s="48"/>
+      <c r="K175" s="4"/>
     </row>
     <row r="176" spans="11:11">
-      <c r="K176" s="48"/>
+      <c r="K176" s="4"/>
     </row>
     <row r="177" spans="11:11">
-      <c r="K177" s="48"/>
+      <c r="K177" s="4"/>
     </row>
     <row r="178" spans="11:11">
-      <c r="K178" s="48"/>
+      <c r="K178" s="4"/>
     </row>
     <row r="179" spans="11:11">
-      <c r="K179" s="48"/>
+      <c r="K179" s="4"/>
     </row>
     <row r="180" spans="11:11">
-      <c r="K180" s="48"/>
+      <c r="K180" s="4"/>
     </row>
     <row r="181" spans="11:11">
-      <c r="K181" s="48"/>
+      <c r="K181" s="4"/>
     </row>
     <row r="182" spans="11:11">
-      <c r="K182" s="48"/>
+      <c r="K182" s="4"/>
     </row>
     <row r="183" spans="11:11">
-      <c r="K183" s="48"/>
+      <c r="K183" s="4"/>
     </row>
     <row r="184" spans="11:11">
-      <c r="K184" s="48"/>
+      <c r="K184" s="4"/>
     </row>
     <row r="185" spans="11:11">
-      <c r="K185" s="48"/>
+      <c r="K185" s="4"/>
     </row>
     <row r="186" spans="11:11">
-      <c r="K186" s="48"/>
+      <c r="K186" s="4"/>
     </row>
     <row r="187" spans="11:11">
-      <c r="K187" s="48"/>
+      <c r="K187" s="4"/>
     </row>
     <row r="188" spans="11:11">
-      <c r="K188" s="48"/>
+      <c r="K188" s="4"/>
     </row>
     <row r="189" spans="11:11">
-      <c r="K189" s="48"/>
+      <c r="K189" s="4"/>
     </row>
     <row r="190" spans="11:11">
-      <c r="K190" s="48"/>
+      <c r="K190" s="4"/>
     </row>
     <row r="191" spans="11:11">
-      <c r="K191" s="48"/>
+      <c r="K191" s="4"/>
     </row>
     <row r="192" spans="11:11">
-      <c r="K192" s="48"/>
+      <c r="K192" s="4"/>
     </row>
     <row r="193" spans="11:11">
-      <c r="K193" s="48"/>
+      <c r="K193" s="4"/>
     </row>
     <row r="194" spans="11:11">
-      <c r="K194" s="48"/>
+      <c r="K194" s="4"/>
     </row>
     <row r="195" spans="11:11">
-      <c r="K195" s="48"/>
+      <c r="K195" s="4"/>
     </row>
     <row r="196" spans="11:11">
-      <c r="K196" s="48"/>
+      <c r="K196" s="4"/>
     </row>
     <row r="197" spans="11:11">
-      <c r="K197" s="48"/>
+      <c r="K197" s="4"/>
     </row>
     <row r="198" spans="11:11">
-      <c r="K198" s="48"/>
+      <c r="K198" s="4"/>
     </row>
     <row r="199" spans="11:11">
-      <c r="K199" s="48"/>
+      <c r="K199" s="4"/>
     </row>
     <row r="200" spans="11:11">
-      <c r="K200" s="48"/>
+      <c r="K200" s="4"/>
     </row>
     <row r="201" spans="11:11">
-      <c r="K201" s="48"/>
+      <c r="K201" s="4"/>
     </row>
     <row r="202" spans="11:11">
-      <c r="K202" s="48"/>
+      <c r="K202" s="4"/>
     </row>
     <row r="203" spans="11:11">
-      <c r="K203" s="48"/>
+      <c r="K203" s="4"/>
     </row>
     <row r="204" spans="11:11">
-      <c r="K204" s="48"/>
+      <c r="K204" s="4"/>
     </row>
     <row r="205" spans="11:11">
-      <c r="K205" s="48"/>
+      <c r="K205" s="4"/>
     </row>
     <row r="206" spans="11:11">
-      <c r="K206" s="48"/>
+      <c r="K206" s="4"/>
     </row>
     <row r="207" spans="11:11">
-      <c r="K207" s="48"/>
+      <c r="K207" s="4"/>
     </row>
     <row r="208" spans="11:11">
-      <c r="K208" s="48"/>
+      <c r="K208" s="4"/>
     </row>
     <row r="209" spans="11:11">
-      <c r="K209" s="48"/>
+      <c r="K209" s="4"/>
     </row>
     <row r="210" spans="11:11">
-      <c r="K210" s="48"/>
+      <c r="K210" s="4"/>
     </row>
     <row r="211" spans="11:11">
-      <c r="K211" s="48"/>
+      <c r="K211" s="4"/>
     </row>
     <row r="212" spans="11:11">
-      <c r="K212" s="48"/>
+      <c r="K212" s="4"/>
     </row>
     <row r="213" spans="11:11">
-      <c r="K213" s="48"/>
+      <c r="K213" s="4"/>
     </row>
     <row r="214" spans="11:11">
-      <c r="K214" s="48"/>
+      <c r="K214" s="4"/>
     </row>
     <row r="215" spans="11:11">
-      <c r="K215" s="48"/>
+      <c r="K215" s="4"/>
     </row>
     <row r="216" spans="11:11">
-      <c r="K216" s="48"/>
+      <c r="K216" s="4"/>
     </row>
     <row r="217" spans="11:11">
-      <c r="K217" s="48"/>
+      <c r="K217" s="4"/>
     </row>
     <row r="218" spans="11:11">
-      <c r="K218" s="48"/>
+      <c r="K218" s="4"/>
     </row>
     <row r="219" spans="11:11">
-      <c r="K219" s="48"/>
+      <c r="K219" s="4"/>
     </row>
     <row r="220" spans="11:11">
-      <c r="K220" s="48"/>
+      <c r="K220" s="4"/>
     </row>
     <row r="221" spans="11:11">
-      <c r="K221" s="48"/>
+      <c r="K221" s="4"/>
     </row>
     <row r="222" spans="11:11">
-      <c r="K222" s="48"/>
+      <c r="K222" s="4"/>
     </row>
     <row r="223" spans="11:11">
-      <c r="K223" s="48"/>
+      <c r="K223" s="4"/>
     </row>
     <row r="224" spans="11:11">
-      <c r="K224" s="48"/>
+      <c r="K224" s="4"/>
     </row>
     <row r="225" spans="11:11">
-      <c r="K225" s="48"/>
+      <c r="K225" s="4"/>
     </row>
     <row r="226" spans="11:11">
-      <c r="K226" s="48"/>
+      <c r="K226" s="4"/>
     </row>
     <row r="227" spans="11:11">
-      <c r="K227" s="48"/>
+      <c r="K227" s="4"/>
     </row>
     <row r="228" spans="11:11">
-      <c r="K228" s="48"/>
+      <c r="K228" s="4"/>
     </row>
     <row r="229" spans="11:11">
-      <c r="K229" s="48"/>
+      <c r="K229" s="4"/>
     </row>
     <row r="230" spans="11:11">
-      <c r="K230" s="48"/>
+      <c r="K230" s="4"/>
     </row>
     <row r="231" spans="11:11">
-      <c r="K231" s="48"/>
+      <c r="K231" s="4"/>
     </row>
     <row r="232" spans="11:11">
-      <c r="K232" s="48"/>
+      <c r="K232" s="4"/>
     </row>
     <row r="233" spans="11:11">
-      <c r="K233" s="48"/>
+      <c r="K233" s="4"/>
     </row>
     <row r="234" spans="11:11">
-      <c r="K234" s="48"/>
+      <c r="K234" s="4"/>
     </row>
     <row r="235" spans="11:11">
-      <c r="K235" s="48"/>
+      <c r="K235" s="4"/>
     </row>
     <row r="236" spans="11:11">
-      <c r="K236" s="48"/>
+      <c r="K236" s="4"/>
     </row>
     <row r="237" spans="11:11">
-      <c r="K237" s="48"/>
+      <c r="K237" s="4"/>
     </row>
     <row r="238" spans="11:11">
-      <c r="K238" s="48"/>
+      <c r="K238" s="4"/>
     </row>
     <row r="239" spans="11:11">
-      <c r="K239" s="48"/>
+      <c r="K239" s="4"/>
     </row>
     <row r="240" spans="11:11">
-      <c r="K240" s="48"/>
+      <c r="K240" s="4"/>
     </row>
     <row r="241" spans="11:11">
-      <c r="K241" s="48"/>
+      <c r="K241" s="4"/>
     </row>
     <row r="242" spans="11:11">
-      <c r="K242" s="48"/>
+      <c r="K242" s="4"/>
     </row>
     <row r="243" spans="11:11">
-      <c r="K243" s="48"/>
+      <c r="K243" s="4"/>
     </row>
     <row r="244" spans="11:11">
-      <c r="K244" s="48"/>
+      <c r="K244" s="4"/>
     </row>
     <row r="245" spans="11:11">
-      <c r="K245" s="48"/>
+      <c r="K245" s="4"/>
     </row>
     <row r="246" spans="11:11">
-      <c r="K246" s="48"/>
+      <c r="K246" s="4"/>
     </row>
     <row r="247" spans="11:11">
-      <c r="K247" s="48"/>
+      <c r="K247" s="4"/>
     </row>
     <row r="248" spans="11:11">
-      <c r="K248" s="48"/>
+      <c r="K248" s="4"/>
     </row>
     <row r="249" spans="11:11">
-      <c r="K249" s="48"/>
+      <c r="K249" s="4"/>
     </row>
     <row r="250" spans="11:11">
-      <c r="K250" s="48"/>
+      <c r="K250" s="4"/>
     </row>
     <row r="251" spans="11:11">
-      <c r="K251" s="48"/>
+      <c r="K251" s="4"/>
     </row>
     <row r="252" spans="11:11">
-      <c r="K252" s="48"/>
+      <c r="K252" s="4"/>
     </row>
     <row r="253" spans="11:11">
-      <c r="K253" s="48"/>
+      <c r="K253" s="4"/>
     </row>
     <row r="254" spans="11:11">
-      <c r="K254" s="48"/>
+      <c r="K254" s="4"/>
     </row>
     <row r="255" spans="11:11">
-      <c r="K255" s="48"/>
+      <c r="K255" s="4"/>
     </row>
     <row r="256" spans="11:11">
-      <c r="K256" s="48"/>
+      <c r="K256" s="4"/>
     </row>
     <row r="257" spans="11:11">
-      <c r="K257" s="48"/>
+      <c r="K257" s="4"/>
     </row>
     <row r="258" spans="11:11">
-      <c r="K258" s="48"/>
+      <c r="K258" s="4"/>
     </row>
     <row r="259" spans="11:11">
-      <c r="K259" s="48"/>
+      <c r="K259" s="4"/>
     </row>
     <row r="260" spans="11:11">
-      <c r="K260" s="48"/>
+      <c r="K260" s="4"/>
     </row>
     <row r="261" spans="11:11">
-      <c r="K261" s="48"/>
+      <c r="K261" s="4"/>
     </row>
     <row r="262" spans="11:11">
-      <c r="K262" s="48"/>
+      <c r="K262" s="4"/>
     </row>
     <row r="263" spans="11:11">
-      <c r="K263" s="48"/>
+      <c r="K263" s="4"/>
     </row>
     <row r="264" spans="11:11">
-      <c r="K264" s="48"/>
+      <c r="K264" s="4"/>
     </row>
     <row r="265" spans="11:11">
-      <c r="K265" s="48"/>
+      <c r="K265" s="4"/>
     </row>
     <row r="266" spans="11:11">
-      <c r="K266" s="48"/>
+      <c r="K266" s="4"/>
     </row>
     <row r="267" spans="11:11">
-      <c r="K267" s="48"/>
+      <c r="K267" s="4"/>
     </row>
     <row r="268" spans="11:11">
-      <c r="K268" s="48"/>
+      <c r="K268" s="4"/>
     </row>
     <row r="269" spans="11:11">
-      <c r="K269" s="48"/>
+      <c r="K269" s="4"/>
     </row>
     <row r="270" spans="11:11">
-      <c r="K270" s="48"/>
+      <c r="K270" s="4"/>
     </row>
     <row r="271" spans="11:11">
-      <c r="K271" s="48"/>
+      <c r="K271" s="4"/>
     </row>
     <row r="272" spans="11:11">
-      <c r="K272" s="48"/>
+      <c r="K272" s="4"/>
     </row>
     <row r="273" spans="11:11">
-      <c r="K273" s="48"/>
+      <c r="K273" s="4"/>
     </row>
     <row r="274" spans="11:11">
-      <c r="K274" s="48"/>
+      <c r="K274" s="4"/>
     </row>
     <row r="275" spans="11:11">
-      <c r="K275" s="48"/>
+      <c r="K275" s="4"/>
     </row>
     <row r="276" spans="11:11">
-      <c r="K276" s="48"/>
+      <c r="K276" s="4"/>
     </row>
     <row r="277" spans="11:11">
-      <c r="K277" s="48"/>
+      <c r="K277" s="4"/>
     </row>
     <row r="278" spans="11:11">
-      <c r="K278" s="48"/>
+      <c r="K278" s="4"/>
     </row>
     <row r="279" spans="11:11">
-      <c r="K279" s="48"/>
+      <c r="K279" s="4"/>
     </row>
     <row r="280" spans="11:11">
-      <c r="K280" s="48"/>
+      <c r="K280" s="4"/>
     </row>
     <row r="281" spans="11:11">
-      <c r="K281" s="48"/>
+      <c r="K281" s="4"/>
     </row>
     <row r="282" spans="11:11">
-      <c r="K282" s="48"/>
+      <c r="K282" s="4"/>
     </row>
     <row r="283" spans="11:11">
-      <c r="K283" s="48"/>
+      <c r="K283" s="4"/>
     </row>
     <row r="284" spans="11:11">
-      <c r="K284" s="48"/>
+      <c r="K284" s="4"/>
     </row>
     <row r="285" spans="11:11">
-      <c r="K285" s="48"/>
+      <c r="K285" s="4"/>
     </row>
     <row r="286" spans="11:11">
-      <c r="K286" s="48"/>
+      <c r="K286" s="4"/>
     </row>
     <row r="287" spans="11:11">
-      <c r="K287" s="48"/>
+      <c r="K287" s="4"/>
     </row>
     <row r="288" spans="11:11">
-      <c r="K288" s="48"/>
+      <c r="K288" s="4"/>
     </row>
     <row r="289" spans="11:11">
-      <c r="K289" s="48"/>
+      <c r="K289" s="4"/>
     </row>
     <row r="290" spans="11:11">
-      <c r="K290" s="48"/>
+      <c r="K290" s="4"/>
     </row>
     <row r="291" spans="11:11">
-      <c r="K291" s="48"/>
+      <c r="K291" s="4"/>
     </row>
     <row r="292" spans="11:11">
-      <c r="K292" s="48"/>
+      <c r="K292" s="4"/>
     </row>
     <row r="293" spans="11:11">
-      <c r="K293" s="48"/>
+      <c r="K293" s="4"/>
     </row>
     <row r="294" spans="11:11">
-      <c r="K294" s="48"/>
+      <c r="K294" s="4"/>
     </row>
     <row r="295" spans="11:11">
-      <c r="K295" s="48"/>
+      <c r="K295" s="4"/>
     </row>
     <row r="296" spans="11:11">
-      <c r="K296" s="48"/>
+      <c r="K296" s="4"/>
     </row>
     <row r="297" spans="11:11">
-      <c r="K297" s="48"/>
+      <c r="K297" s="4"/>
     </row>
     <row r="298" spans="11:11">
-      <c r="K298" s="48"/>
+      <c r="K298" s="4"/>
     </row>
     <row r="299" spans="11:11">
-      <c r="K299" s="48"/>
+      <c r="K299" s="4"/>
     </row>
     <row r="300" spans="11:11">
-      <c r="K300" s="48"/>
+      <c r="K300" s="4"/>
     </row>
     <row r="301" spans="11:11">
-      <c r="K301" s="48"/>
+      <c r="K301" s="4"/>
     </row>
     <row r="302" spans="11:11">
-      <c r="K302" s="48"/>
+      <c r="K302" s="4"/>
     </row>
     <row r="303" spans="11:11">
-      <c r="K303" s="48"/>
+      <c r="K303" s="4"/>
     </row>
     <row r="304" spans="11:11">
-      <c r="K304" s="48"/>
+      <c r="K304" s="4"/>
     </row>
     <row r="305" spans="11:11">
-      <c r="K305" s="48"/>
+      <c r="K305" s="4"/>
     </row>
     <row r="306" spans="11:11">
-      <c r="K306" s="48"/>
+      <c r="K306" s="4"/>
     </row>
     <row r="307" spans="11:11">
-      <c r="K307" s="48"/>
+      <c r="K307" s="4"/>
     </row>
     <row r="308" spans="11:11">
-      <c r="K308" s="48"/>
+      <c r="K308" s="4"/>
     </row>
     <row r="309" spans="11:11">
-      <c r="K309" s="48"/>
+      <c r="K309" s="4"/>
     </row>
     <row r="310" spans="11:11">
-      <c r="K310" s="48"/>
+      <c r="K310" s="4"/>
     </row>
     <row r="311" spans="11:11">
-      <c r="K311" s="48"/>
+      <c r="K311" s="4"/>
     </row>
     <row r="312" spans="11:11">
-      <c r="K312" s="48"/>
+      <c r="K312" s="4"/>
     </row>
     <row r="313" spans="11:11">
-      <c r="K313" s="48"/>
+      <c r="K313" s="4"/>
     </row>
     <row r="314" spans="11:11">
-      <c r="K314" s="48"/>
+      <c r="K314" s="4"/>
     </row>
     <row r="315" spans="11:11">
-      <c r="K315" s="48"/>
+      <c r="K315" s="4"/>
     </row>
     <row r="316" spans="11:11">
-      <c r="K316" s="48"/>
+      <c r="K316" s="4"/>
     </row>
     <row r="317" spans="11:11">
-      <c r="K317" s="48"/>
+      <c r="K317" s="4"/>
     </row>
     <row r="318" spans="11:11">
-      <c r="K318" s="48"/>
+      <c r="K318" s="4"/>
     </row>
     <row r="319" spans="11:11">
-      <c r="K319" s="48"/>
+      <c r="K319" s="4"/>
     </row>
     <row r="320" spans="11:11">
-      <c r="K320" s="48"/>
+      <c r="K320" s="4"/>
     </row>
     <row r="321" spans="11:11">
-      <c r="K321" s="48"/>
+      <c r="K321" s="4"/>
     </row>
     <row r="322" spans="11:11">
-      <c r="K322" s="48"/>
+      <c r="K322" s="4"/>
     </row>
     <row r="323" spans="11:11">
-      <c r="K323" s="48"/>
+      <c r="K323" s="4"/>
     </row>
     <row r="324" spans="11:11">
-      <c r="K324" s="48"/>
+      <c r="K324" s="4"/>
     </row>
     <row r="325" spans="11:11">
-      <c r="K325" s="48"/>
+      <c r="K325" s="4"/>
     </row>
     <row r="326" spans="11:11">
-      <c r="K326" s="48"/>
+      <c r="K326" s="4"/>
     </row>
     <row r="327" spans="11:11">
-      <c r="K327" s="48"/>
+      <c r="K327" s="4"/>
     </row>
     <row r="328" spans="11:11">
-      <c r="K328" s="48"/>
+      <c r="K328" s="4"/>
     </row>
     <row r="329" spans="11:11">
-      <c r="K329" s="48"/>
+      <c r="K329" s="4"/>
     </row>
     <row r="330" spans="11:11">
-      <c r="K330" s="48"/>
+      <c r="K330" s="4"/>
     </row>
     <row r="331" spans="11:11">
-      <c r="K331" s="48"/>
+      <c r="K331" s="4"/>
     </row>
     <row r="332" spans="11:11">
-      <c r="K332" s="48"/>
+      <c r="K332" s="4"/>
     </row>
     <row r="333" spans="11:11">
-      <c r="K333" s="48"/>
+      <c r="K333" s="4"/>
     </row>
     <row r="334" spans="11:11">
-      <c r="K334" s="48"/>
+      <c r="K334" s="4"/>
     </row>
     <row r="335" spans="11:11">
-      <c r="K335" s="48"/>
+      <c r="K335" s="4"/>
     </row>
     <row r="336" spans="11:11">
-      <c r="K336" s="48"/>
+      <c r="K336" s="4"/>
     </row>
     <row r="337" spans="11:11">
-      <c r="K337" s="48"/>
+      <c r="K337" s="4"/>
     </row>
     <row r="338" spans="11:11">
-      <c r="K338" s="48"/>
+      <c r="K338" s="4"/>
     </row>
     <row r="339" spans="11:11">
-      <c r="K339" s="48"/>
+      <c r="K339" s="4"/>
     </row>
     <row r="340" spans="11:11">
-      <c r="K340" s="48"/>
+      <c r="K340" s="4"/>
     </row>
     <row r="341" spans="11:11">
-      <c r="K341" s="48"/>
+      <c r="K341" s="4"/>
     </row>
     <row r="342" spans="11:11">
-      <c r="K342" s="48"/>
+      <c r="K342" s="4"/>
     </row>
     <row r="343" spans="11:11">
-      <c r="K343" s="48"/>
+      <c r="K343" s="4"/>
     </row>
     <row r="344" spans="11:11">
-      <c r="K344" s="48"/>
+      <c r="K344" s="4"/>
     </row>
     <row r="345" spans="11:11">
-      <c r="K345" s="48"/>
+      <c r="K345" s="4"/>
     </row>
     <row r="346" spans="11:11">
-      <c r="K346" s="48"/>
+      <c r="K346" s="4"/>
     </row>
     <row r="347" spans="11:11">
-      <c r="K347" s="48"/>
+      <c r="K347" s="4"/>
     </row>
     <row r="348" spans="11:11">
-      <c r="K348" s="48"/>
+      <c r="K348" s="4"/>
     </row>
     <row r="349" spans="11:11">
-      <c r="K349" s="48"/>
+      <c r="K349" s="4"/>
     </row>
     <row r="350" spans="11:11">
-      <c r="K350" s="48"/>
+      <c r="K350" s="4"/>
     </row>
     <row r="351" spans="11:11">
-      <c r="K351" s="48"/>
+      <c r="K351" s="4"/>
     </row>
     <row r="352" spans="11:11">
-      <c r="K352" s="48"/>
+      <c r="K352" s="4"/>
     </row>
     <row r="353" spans="11:11">
-      <c r="K353" s="48"/>
+      <c r="K353" s="4"/>
     </row>
     <row r="354" spans="11:11">
-      <c r="K354" s="48"/>
+      <c r="K354" s="4"/>
     </row>
     <row r="355" spans="11:11">
-      <c r="K355" s="48"/>
+      <c r="K355" s="4"/>
     </row>
     <row r="356" spans="11:11">
-      <c r="K356" s="48"/>
+      <c r="K356" s="4"/>
     </row>
     <row r="357" spans="11:11">
-      <c r="K357" s="48"/>
+      <c r="K357" s="4"/>
     </row>
     <row r="358" spans="11:11">
-      <c r="K358" s="48"/>
+      <c r="K358" s="4"/>
     </row>
     <row r="359" spans="11:11">
-      <c r="K359" s="48"/>
+      <c r="K359" s="4"/>
     </row>
     <row r="360" spans="11:11">
-      <c r="K360" s="48"/>
+      <c r="K360" s="4"/>
     </row>
     <row r="361" spans="11:11">
-      <c r="K361" s="48"/>
+      <c r="K361" s="4"/>
     </row>
     <row r="362" spans="11:11">
-      <c r="K362" s="48"/>
+      <c r="K362" s="4"/>
     </row>
     <row r="363" spans="11:11">
-      <c r="K363" s="48"/>
+      <c r="K363" s="4"/>
     </row>
     <row r="364" spans="11:11">
-      <c r="K364" s="48"/>
+      <c r="K364" s="4"/>
     </row>
     <row r="365" spans="11:11">
-      <c r="K365" s="48"/>
+      <c r="K365" s="4"/>
     </row>
     <row r="366" spans="11:11">
-      <c r="K366" s="48"/>
+      <c r="K366" s="4"/>
     </row>
     <row r="367" spans="11:11">
-      <c r="K367" s="48"/>
+      <c r="K367" s="4"/>
     </row>
     <row r="368" spans="11:11">
-      <c r="K368" s="48"/>
+      <c r="K368" s="4"/>
     </row>
     <row r="369" spans="11:11">
-      <c r="K369" s="48"/>
+      <c r="K369" s="4"/>
     </row>
     <row r="370" spans="11:11">
-      <c r="K370" s="48"/>
+      <c r="K370" s="4"/>
     </row>
     <row r="371" spans="11:11">
-      <c r="K371" s="48"/>
+      <c r="K371" s="4"/>
     </row>
     <row r="372" spans="11:11">
-      <c r="K372" s="48"/>
+      <c r="K372" s="4"/>
     </row>
     <row r="373" spans="11:11">
-      <c r="K373" s="48"/>
+      <c r="K373" s="4"/>
     </row>
     <row r="374" spans="11:11">
-      <c r="K374" s="48"/>
+      <c r="K374" s="4"/>
     </row>
     <row r="375" spans="11:11">
-      <c r="K375" s="48"/>
+      <c r="K375" s="4"/>
     </row>
     <row r="376" spans="11:11">
-      <c r="K376" s="48"/>
+      <c r="K376" s="4"/>
     </row>
     <row r="377" spans="11:11">
-      <c r="K377" s="48"/>
+      <c r="K377" s="4"/>
     </row>
     <row r="378" spans="11:11">
-      <c r="K378" s="48"/>
+      <c r="K378" s="4"/>
     </row>
     <row r="379" spans="11:11">
-      <c r="K379" s="48"/>
+      <c r="K379" s="4"/>
     </row>
     <row r="380" spans="11:11">
-      <c r="K380" s="48"/>
+      <c r="K380" s="4"/>
     </row>
     <row r="381" spans="11:11">
-      <c r="K381" s="48"/>
+      <c r="K381" s="4"/>
     </row>
     <row r="382" spans="11:11">
-      <c r="K382" s="48"/>
+      <c r="K382" s="4"/>
     </row>
     <row r="383" spans="11:11">
-      <c r="K383" s="48"/>
+      <c r="K383" s="4"/>
     </row>
     <row r="384" spans="11:11">
-      <c r="K384" s="48"/>
+      <c r="K384" s="4"/>
     </row>
     <row r="385" spans="11:11">
-      <c r="K385" s="48"/>
+      <c r="K385" s="4"/>
     </row>
     <row r="386" spans="11:11">
-      <c r="K386" s="48"/>
+      <c r="K386" s="4"/>
     </row>
     <row r="387" spans="11:11">
-      <c r="K387" s="48"/>
+      <c r="K387" s="4"/>
     </row>
     <row r="388" spans="11:11">
-      <c r="K388" s="48"/>
+      <c r="K388" s="4"/>
     </row>
     <row r="389" spans="11:11">
-      <c r="K389" s="48"/>
+      <c r="K389" s="4"/>
     </row>
     <row r="390" spans="11:11">
-      <c r="K390" s="48"/>
+      <c r="K390" s="4"/>
     </row>
     <row r="391" spans="11:11">
-      <c r="K391" s="48"/>
+      <c r="K391" s="4"/>
     </row>
     <row r="392" spans="11:11">
-      <c r="K392" s="48"/>
+      <c r="K392" s="4"/>
     </row>
     <row r="393" spans="11:11">
-      <c r="K393" s="48"/>
+      <c r="K393" s="4"/>
     </row>
     <row r="394" spans="11:11">
-      <c r="K394" s="48"/>
+      <c r="K394" s="4"/>
     </row>
     <row r="395" spans="11:11">
-      <c r="K395" s="48"/>
+      <c r="K395" s="4"/>
     </row>
     <row r="396" spans="11:11">
-      <c r="K396" s="48"/>
+      <c r="K396" s="4"/>
     </row>
     <row r="397" spans="11:11">
-      <c r="K397" s="48"/>
+      <c r="K397" s="4"/>
     </row>
     <row r="398" spans="11:11">
-      <c r="K398" s="48"/>
+      <c r="K398" s="4"/>
     </row>
     <row r="399" spans="11:11">
-      <c r="K399" s="48"/>
+      <c r="K399" s="4"/>
     </row>
     <row r="400" spans="11:11">
-      <c r="K400" s="48"/>
+      <c r="K400" s="4"/>
     </row>
     <row r="401" spans="11:11">
-      <c r="K401" s="48"/>
+      <c r="K401" s="4"/>
     </row>
     <row r="402" spans="11:11">
-      <c r="K402" s="48"/>
+      <c r="K402" s="4"/>
     </row>
     <row r="403" spans="11:11">
-      <c r="K403" s="48"/>
+      <c r="K403" s="4"/>
     </row>
     <row r="404" spans="11:11">
-      <c r="K404" s="48"/>
+      <c r="K404" s="4"/>
     </row>
     <row r="405" spans="11:11">
-      <c r="K405" s="48"/>
+      <c r="K405" s="4"/>
     </row>
     <row r="406" spans="11:11">
-      <c r="K406" s="48"/>
+      <c r="K406" s="4"/>
     </row>
     <row r="407" spans="11:11">
-      <c r="K407" s="48"/>
+      <c r="K407" s="4"/>
     </row>
     <row r="408" spans="11:11">
-      <c r="K408" s="48"/>
+      <c r="K408" s="4"/>
     </row>
     <row r="409" spans="11:11">
-      <c r="K409" s="48"/>
+      <c r="K409" s="4"/>
     </row>
     <row r="410" spans="11:11">
-      <c r="K410" s="48"/>
+      <c r="K410" s="4"/>
     </row>
     <row r="411" spans="11:11">
-      <c r="K411" s="48"/>
+      <c r="K411" s="4"/>
     </row>
     <row r="412" spans="11:11">
-      <c r="K412" s="48"/>
+      <c r="K412" s="4"/>
     </row>
     <row r="413" spans="11:11">
-      <c r="K413" s="48"/>
+      <c r="K413" s="4"/>
     </row>
     <row r="414" spans="11:11">
-      <c r="K414" s="48"/>
+      <c r="K414" s="4"/>
     </row>
     <row r="415" spans="11:11">
-      <c r="K415" s="48"/>
+      <c r="K415" s="4"/>
     </row>
     <row r="416" spans="11:11">
-      <c r="K416" s="48"/>
+      <c r="K416" s="4"/>
     </row>
     <row r="417" spans="11:11">
-      <c r="K417" s="48"/>
+      <c r="K417" s="4"/>
     </row>
     <row r="418" spans="11:11">
-      <c r="K418" s="48"/>
+      <c r="K418" s="4"/>
     </row>
     <row r="419" spans="11:11">
-      <c r="K419" s="48"/>
+      <c r="K419" s="4"/>
     </row>
     <row r="420" spans="11:11">
-      <c r="K420" s="48"/>
+      <c r="K420" s="4"/>
     </row>
     <row r="421" spans="11:11">
-      <c r="K421" s="48"/>
+      <c r="K421" s="4"/>
     </row>
     <row r="422" spans="11:11">
-      <c r="K422" s="48"/>
+      <c r="K422" s="4"/>
     </row>
     <row r="423" spans="11:11">
-      <c r="K423" s="48"/>
+      <c r="K423" s="4"/>
     </row>
     <row r="424" spans="11:11">
-      <c r="K424" s="48"/>
+      <c r="K424" s="4"/>
     </row>
     <row r="425" spans="11:11">
-      <c r="K425" s="48"/>
+      <c r="K425" s="4"/>
     </row>
     <row r="426" spans="11:11">
-      <c r="K426" s="48"/>
+      <c r="K426" s="4"/>
     </row>
     <row r="427" spans="11:11">
-      <c r="K427" s="48"/>
+      <c r="K427" s="4"/>
     </row>
     <row r="428" spans="11:11">
-      <c r="K428" s="48"/>
+      <c r="K428" s="4"/>
     </row>
     <row r="429" spans="11:11">
-      <c r="K429" s="48"/>
+      <c r="K429" s="4"/>
     </row>
     <row r="430" spans="11:11">
-      <c r="K430" s="48"/>
+      <c r="K430" s="4"/>
     </row>
     <row r="431" spans="11:11">
-      <c r="K431" s="48"/>
+      <c r="K431" s="4"/>
     </row>
     <row r="432" spans="11:11">
-      <c r="K432" s="48"/>
+      <c r="K432" s="4"/>
     </row>
     <row r="433" spans="11:11">
-      <c r="K433" s="48"/>
+      <c r="K433" s="4"/>
     </row>
     <row r="434" spans="11:11">
-      <c r="K434" s="48"/>
+      <c r="K434" s="4"/>
     </row>
     <row r="435" spans="11:11">
-      <c r="K435" s="48"/>
+      <c r="K435" s="4"/>
     </row>
     <row r="436" spans="11:11">
-      <c r="K436" s="48"/>
+      <c r="K436" s="4"/>
     </row>
     <row r="437" spans="11:11">
-      <c r="K437" s="48"/>
+      <c r="K437" s="4"/>
     </row>
     <row r="438" spans="11:11">
-      <c r="K438" s="48"/>
+      <c r="K438" s="4"/>
     </row>
     <row r="439" spans="11:11">
-      <c r="K439" s="48"/>
+      <c r="K439" s="4"/>
     </row>
     <row r="440" spans="11:11">
-      <c r="K440" s="48"/>
+      <c r="K440" s="4"/>
     </row>
     <row r="441" spans="11:11">
-      <c r="K441" s="48"/>
+      <c r="K441" s="4"/>
     </row>
     <row r="442" spans="11:11">
-      <c r="K442" s="48"/>
+      <c r="K442" s="4"/>
     </row>
     <row r="443" spans="11:11">
-      <c r="K443" s="48"/>
+      <c r="K443" s="4"/>
     </row>
     <row r="444" spans="11:11">
-      <c r="K444" s="48"/>
+      <c r="K444" s="4"/>
     </row>
     <row r="445" spans="11:11">
-      <c r="K445" s="48"/>
+      <c r="K445" s="4"/>
     </row>
     <row r="446" spans="11:11">
-      <c r="K446" s="48"/>
+      <c r="K446" s="4"/>
     </row>
     <row r="447" spans="11:11">
-      <c r="K447" s="48"/>
+      <c r="K447" s="4"/>
     </row>
     <row r="448" spans="11:11">
-      <c r="K448" s="48"/>
+      <c r="K448" s="4"/>
     </row>
     <row r="449" spans="11:11">
-      <c r="K449" s="48"/>
+      <c r="K449" s="4"/>
     </row>
     <row r="450" spans="11:11">
-      <c r="K450" s="48"/>
+      <c r="K450" s="4"/>
     </row>
     <row r="451" spans="11:11">
-      <c r="K451" s="48"/>
+      <c r="K451" s="4"/>
     </row>
     <row r="452" spans="11:11">
-      <c r="K452" s="48"/>
+      <c r="K452" s="4"/>
     </row>
     <row r="453" spans="11:11">
-      <c r="K453" s="48"/>
+      <c r="K453" s="4"/>
     </row>
     <row r="454" spans="11:11">
-      <c r="K454" s="48"/>
+      <c r="K454" s="4"/>
     </row>
     <row r="455" spans="11:11">
-      <c r="K455" s="48"/>
+      <c r="K455" s="4"/>
     </row>
     <row r="456" spans="11:11">
-      <c r="K456" s="48"/>
+      <c r="K456" s="4"/>
     </row>
     <row r="457" spans="11:11">
-      <c r="K457" s="48"/>
+      <c r="K457" s="4"/>
     </row>
     <row r="458" spans="11:11">
-      <c r="K458" s="48"/>
+      <c r="K458" s="4"/>
     </row>
     <row r="459" spans="11:11">
-      <c r="K459" s="48"/>
+      <c r="K459" s="4"/>
     </row>
     <row r="460" spans="11:11">
-      <c r="K460" s="48"/>
+      <c r="K460" s="4"/>
     </row>
     <row r="461" spans="11:11">
-      <c r="K461" s="48"/>
+      <c r="K461" s="4"/>
     </row>
     <row r="462" spans="11:11">
-      <c r="K462" s="48"/>
+      <c r="K462" s="4"/>
     </row>
     <row r="463" spans="11:11">
-      <c r="K463" s="48"/>
+      <c r="K463" s="4"/>
     </row>
     <row r="464" spans="11:11">
-      <c r="K464" s="48"/>
+      <c r="K464" s="4"/>
     </row>
     <row r="465" spans="11:11">
-      <c r="K465" s="48"/>
+      <c r="K465" s="4"/>
     </row>
     <row r="466" spans="11:11">
-      <c r="K466" s="48"/>
+      <c r="K466" s="4"/>
     </row>
     <row r="467" spans="11:11">
-      <c r="K467" s="48"/>
+      <c r="K467" s="4"/>
     </row>
     <row r="468" spans="11:11">
-      <c r="K468" s="48"/>
+      <c r="K468" s="4"/>
     </row>
     <row r="469" spans="11:11">
-      <c r="K469" s="48"/>
+      <c r="K469" s="4"/>
     </row>
     <row r="470" spans="11:11">
-      <c r="K470" s="48"/>
+      <c r="K470" s="4"/>
     </row>
     <row r="471" spans="11:11">
-      <c r="K471" s="48"/>
+      <c r="K471" s="4"/>
     </row>
     <row r="472" spans="11:11">
-      <c r="K472" s="48"/>
+      <c r="K472" s="4"/>
     </row>
     <row r="473" spans="11:11">
-      <c r="K473" s="48"/>
+      <c r="K473" s="4"/>
     </row>
     <row r="474" spans="11:11">
-      <c r="K474" s="48"/>
+      <c r="K474" s="4"/>
     </row>
     <row r="475" spans="11:11">
-      <c r="K475" s="48"/>
+      <c r="K475" s="4"/>
     </row>
     <row r="476" spans="11:11">
-      <c r="K476" s="48"/>
+      <c r="K476" s="4"/>
     </row>
     <row r="477" spans="11:11">
-      <c r="K477" s="48"/>
+      <c r="K477" s="4"/>
     </row>
     <row r="478" spans="11:11">
-      <c r="K478" s="48"/>
+      <c r="K478" s="4"/>
     </row>
     <row r="479" spans="11:11">
-      <c r="K479" s="48"/>
+      <c r="K479" s="4"/>
     </row>
     <row r="480" spans="11:11">
-      <c r="K480" s="48"/>
+      <c r="K480" s="4"/>
     </row>
     <row r="481" spans="11:11">
-      <c r="K481" s="48"/>
+      <c r="K481" s="4"/>
     </row>
     <row r="482" spans="11:11">
-      <c r="K482" s="48"/>
+      <c r="K482" s="4"/>
     </row>
     <row r="483" spans="11:11">
-      <c r="K483" s="48"/>
+      <c r="K483" s="4"/>
     </row>
     <row r="484" spans="11:11">
-      <c r="K484" s="48"/>
+      <c r="K484" s="4"/>
     </row>
     <row r="485" spans="11:11">
-      <c r="K485" s="48"/>
+      <c r="K485" s="4"/>
     </row>
     <row r="486" spans="11:11">
-      <c r="K486" s="48"/>
+      <c r="K486" s="4"/>
     </row>
     <row r="487" spans="11:11">
-      <c r="K487" s="48"/>
+      <c r="K487" s="4"/>
     </row>
     <row r="488" spans="11:11">
-      <c r="K488" s="48"/>
+      <c r="K488" s="4"/>
     </row>
     <row r="489" spans="11:11">
-      <c r="K489" s="48"/>
+      <c r="K489" s="4"/>
     </row>
     <row r="490" spans="11:11">
-      <c r="K490" s="48"/>
+      <c r="K490" s="4"/>
     </row>
     <row r="491" spans="11:11">
-      <c r="K491" s="48"/>
+      <c r="K491" s="4"/>
     </row>
     <row r="492" spans="11:11">
-      <c r="K492" s="48"/>
+      <c r="K492" s="4"/>
     </row>
     <row r="493" spans="11:11">
-      <c r="K493" s="48"/>
+      <c r="K493" s="4"/>
     </row>
     <row r="494" spans="11:11">
-      <c r="K494" s="48"/>
+      <c r="K494" s="4"/>
     </row>
     <row r="495" spans="11:11">
-      <c r="K495" s="48"/>
+      <c r="K495" s="4"/>
     </row>
     <row r="496" spans="11:11">
-      <c r="K496" s="48"/>
+      <c r="K496" s="4"/>
     </row>
     <row r="497" spans="11:11">
-      <c r="K497" s="48"/>
+      <c r="K497" s="4"/>
     </row>
     <row r="498" spans="11:11">
-      <c r="K498" s="48"/>
+      <c r="K498" s="4"/>
     </row>
     <row r="499" spans="11:11">
-      <c r="K499" s="48"/>
+      <c r="K499" s="4"/>
     </row>
     <row r="500" spans="11:11">
-      <c r="K500" s="48"/>
+      <c r="K500" s="4"/>
     </row>
     <row r="501" spans="11:11">
-      <c r="K501" s="48"/>
+      <c r="K501" s="4"/>
     </row>
     <row r="502" spans="11:11">
-      <c r="K502" s="48"/>
+      <c r="K502" s="4"/>
     </row>
     <row r="503" spans="11:11">
-      <c r="K503" s="48"/>
+      <c r="K503" s="4"/>
     </row>
     <row r="504" spans="11:11">
-      <c r="K504" s="48"/>
+      <c r="K504" s="4"/>
     </row>
     <row r="505" spans="11:11">
-      <c r="K505" s="48"/>
+      <c r="K505" s="4"/>
     </row>
     <row r="506" spans="11:11">
-      <c r="K506" s="48"/>
+      <c r="K506" s="4"/>
     </row>
     <row r="507" spans="11:11">
-      <c r="K507" s="48"/>
+      <c r="K507" s="4"/>
     </row>
     <row r="508" spans="11:11">
-      <c r="K508" s="48"/>
+      <c r="K508" s="4"/>
     </row>
     <row r="509" spans="11:11">
-      <c r="K509" s="48"/>
+      <c r="K509" s="4"/>
     </row>
     <row r="510" spans="11:11">
-      <c r="K510" s="48"/>
+      <c r="K510" s="4"/>
     </row>
     <row r="511" spans="11:11">
-      <c r="K511" s="48"/>
+      <c r="K511" s="4"/>
     </row>
     <row r="512" spans="11:11">
-      <c r="K512" s="48"/>
+      <c r="K512" s="4"/>
     </row>
     <row r="513" spans="11:11">
-      <c r="K513" s="48"/>
+      <c r="K513" s="4"/>
     </row>
     <row r="514" spans="11:11">
-      <c r="K514" s="48"/>
+      <c r="K514" s="4"/>
     </row>
     <row r="515" spans="11:11">
-      <c r="K515" s="48"/>
+      <c r="K515" s="4"/>
     </row>
     <row r="516" spans="11:11">
-      <c r="K516" s="48"/>
+      <c r="K516" s="4"/>
     </row>
     <row r="517" spans="11:11">
-      <c r="K517" s="48"/>
+      <c r="K517" s="4"/>
     </row>
     <row r="518" spans="11:11">
-      <c r="K518" s="48"/>
+      <c r="K518" s="4"/>
     </row>
     <row r="519" spans="11:11">
-      <c r="K519" s="48"/>
+      <c r="K519" s="4"/>
     </row>
     <row r="520" spans="11:11">
-      <c r="K520" s="48"/>
+      <c r="K520" s="4"/>
     </row>
     <row r="521" spans="11:11">
-      <c r="K521" s="48"/>
+      <c r="K521" s="4"/>
     </row>
     <row r="522" spans="11:11">
-      <c r="K522" s="48"/>
+      <c r="K522" s="4"/>
     </row>
     <row r="523" spans="11:11">
-      <c r="K523" s="48"/>
+      <c r="K523" s="4"/>
     </row>
     <row r="524" spans="11:11">
-      <c r="K524" s="48"/>
+      <c r="K524" s="4"/>
     </row>
     <row r="525" spans="11:11">
-      <c r="K525" s="48"/>
+      <c r="K525" s="4"/>
     </row>
     <row r="526" spans="11:11">
-      <c r="K526" s="48"/>
+      <c r="K526" s="4"/>
     </row>
     <row r="527" spans="11:11">
-      <c r="K527" s="48"/>
+      <c r="K527" s="4"/>
     </row>
     <row r="528" spans="11:11">
-      <c r="K528" s="48"/>
+      <c r="K528" s="4"/>
     </row>
     <row r="529" spans="11:11">
-      <c r="K529" s="48"/>
+      <c r="K529" s="4"/>
     </row>
     <row r="530" spans="11:11">
-      <c r="K530" s="48"/>
+      <c r="K530" s="4"/>
     </row>
     <row r="531" spans="11:11">
-      <c r="K531" s="48"/>
+      <c r="K531" s="4"/>
     </row>
     <row r="532" spans="11:11">
-      <c r="K532" s="48"/>
+      <c r="K532" s="4"/>
     </row>
     <row r="533" spans="11:11">
-      <c r="K533" s="48"/>
+      <c r="K533" s="4"/>
     </row>
     <row r="534" spans="11:11">
-      <c r="K534" s="48"/>
+      <c r="K534" s="4"/>
     </row>
     <row r="535" spans="11:11">
-      <c r="K535" s="48"/>
+      <c r="K535" s="4"/>
     </row>
     <row r="536" spans="11:11">
-      <c r="K536" s="48"/>
+      <c r="K536" s="4"/>
     </row>
     <row r="537" spans="11:11">
-      <c r="K537" s="48"/>
+      <c r="K537" s="4"/>
     </row>
     <row r="538" spans="11:11">
-      <c r="K538" s="48"/>
+      <c r="K538" s="4"/>
     </row>
     <row r="539" spans="11:11">
-      <c r="K539" s="48"/>
+      <c r="K539" s="4"/>
     </row>
     <row r="540" spans="11:11">
-      <c r="K540" s="48"/>
+      <c r="K540" s="4"/>
     </row>
     <row r="541" spans="11:11">
-      <c r="K541" s="48"/>
+      <c r="K541" s="4"/>
     </row>
     <row r="542" spans="11:11">
-      <c r="K542" s="48"/>
+      <c r="K542" s="4"/>
     </row>
     <row r="543" spans="11:11">
-      <c r="K543" s="48"/>
+      <c r="K543" s="4"/>
     </row>
     <row r="544" spans="11:11">
-      <c r="K544" s="48"/>
+      <c r="K544" s="4"/>
     </row>
     <row r="545" spans="11:11">
-      <c r="K545" s="48"/>
+      <c r="K545" s="4"/>
     </row>
     <row r="546" spans="11:11">
-      <c r="K546" s="48"/>
+      <c r="K546" s="4"/>
     </row>
     <row r="547" spans="11:11">
-      <c r="K547" s="48"/>
+      <c r="K547" s="4"/>
     </row>
     <row r="548" spans="11:11">
-      <c r="K548" s="48"/>
+      <c r="K548" s="4"/>
     </row>
     <row r="549" spans="11:11">
-      <c r="K549" s="48"/>
+      <c r="K549" s="4"/>
     </row>
     <row r="550" spans="11:11">
-      <c r="K550" s="48"/>
+      <c r="K550" s="4"/>
     </row>
     <row r="551" spans="11:11">
-      <c r="K551" s="48"/>
+      <c r="K551" s="4"/>
     </row>
     <row r="552" spans="11:11">
-      <c r="K552" s="48"/>
+      <c r="K552" s="4"/>
     </row>
     <row r="553" spans="11:11">
-      <c r="K553" s="48"/>
+      <c r="K553" s="4"/>
     </row>
     <row r="554" spans="11:11">
-      <c r="K554" s="48"/>
+      <c r="K554" s="4"/>
     </row>
     <row r="555" spans="11:11">
-      <c r="K555" s="48"/>
+      <c r="K555" s="4"/>
     </row>
     <row r="556" spans="11:11">
-      <c r="K556" s="48"/>
+      <c r="K556" s="4"/>
     </row>
     <row r="557" spans="11:11">
-      <c r="K557" s="48"/>
+      <c r="K557" s="4"/>
     </row>
     <row r="558" spans="11:11">
-      <c r="K558" s="48"/>
+      <c r="K558" s="4"/>
     </row>
     <row r="559" spans="11:11">
-      <c r="K559" s="48"/>
+      <c r="K559" s="4"/>
     </row>
     <row r="560" spans="11:11">
-      <c r="K560" s="48"/>
+      <c r="K560" s="4"/>
     </row>
     <row r="561" spans="11:11">
-      <c r="K561" s="48"/>
+      <c r="K561" s="4"/>
     </row>
     <row r="562" spans="11:11">
-      <c r="K562" s="48"/>
+      <c r="K562" s="4"/>
     </row>
     <row r="563" spans="11:11">
-      <c r="K563" s="48"/>
+      <c r="K563" s="4"/>
     </row>
     <row r="564" spans="11:11">
-      <c r="K564" s="48"/>
+      <c r="K564" s="4"/>
     </row>
     <row r="565" spans="11:11">
-      <c r="K565" s="48"/>
+      <c r="K565" s="4"/>
     </row>
     <row r="566" spans="11:11">
-      <c r="K566" s="48"/>
+      <c r="K566" s="4"/>
     </row>
     <row r="567" spans="11:11">
-      <c r="K567" s="48"/>
+      <c r="K567" s="4"/>
     </row>
     <row r="568" spans="11:11">
-      <c r="K568" s="48"/>
+      <c r="K568" s="4"/>
     </row>
     <row r="569" spans="11:11">
-      <c r="K569" s="48"/>
+      <c r="K569" s="4"/>
     </row>
     <row r="570" spans="11:11">
-      <c r="K570" s="48"/>
+      <c r="K570" s="4"/>
     </row>
     <row r="571" spans="11:11">
-      <c r="K571" s="48"/>
+      <c r="K571" s="4"/>
     </row>
     <row r="572" spans="11:11">
-      <c r="K572" s="48"/>
+      <c r="K572" s="4"/>
     </row>
     <row r="573" spans="11:11">
-      <c r="K573" s="48"/>
+      <c r="K573" s="4"/>
     </row>
     <row r="574" spans="11:11">
-      <c r="K574" s="48"/>
+      <c r="K574" s="4"/>
     </row>
     <row r="575" spans="11:11">
-      <c r="K575" s="48"/>
+      <c r="K575" s="4"/>
     </row>
     <row r="576" spans="11:11">
-      <c r="K576" s="48"/>
+      <c r="K576" s="4"/>
     </row>
     <row r="577" spans="11:11">
-      <c r="K577" s="48"/>
+      <c r="K577" s="4"/>
     </row>
     <row r="578" spans="11:11">
-      <c r="K578" s="48"/>
+      <c r="K578" s="4"/>
     </row>
     <row r="579" spans="11:11">
-      <c r="K579" s="48"/>
+      <c r="K579" s="4"/>
     </row>
     <row r="580" spans="11:11">
-      <c r="K580" s="48"/>
+      <c r="K580" s="4"/>
     </row>
     <row r="581" spans="11:11">
-      <c r="K581" s="48"/>
+      <c r="K581" s="4"/>
     </row>
     <row r="582" spans="11:11">
-      <c r="K582" s="48"/>
+      <c r="K582" s="4"/>
     </row>
     <row r="583" spans="11:11">
-      <c r="K583" s="48"/>
+      <c r="K583" s="4"/>
     </row>
     <row r="584" spans="11:11">
-      <c r="K584" s="48"/>
+      <c r="K584" s="4"/>
     </row>
     <row r="585" spans="11:11">
-      <c r="K585" s="48"/>
+      <c r="K585" s="4"/>
     </row>
     <row r="586" spans="11:11">
-      <c r="K586" s="48"/>
+      <c r="K586" s="4"/>
     </row>
     <row r="587" spans="11:11">
-      <c r="K587" s="48"/>
+      <c r="K587" s="4"/>
     </row>
     <row r="588" spans="11:11">
-      <c r="K588" s="48"/>
+      <c r="K588" s="4"/>
     </row>
     <row r="589" spans="11:11">
-      <c r="K589" s="48"/>
+      <c r="K589" s="4"/>
     </row>
     <row r="590" spans="11:11">
-      <c r="K590" s="48"/>
+      <c r="K590" s="4"/>
     </row>
     <row r="591" spans="11:11">
-      <c r="K591" s="48"/>
+      <c r="K591" s="4"/>
     </row>
     <row r="592" spans="11:11">
-      <c r="K592" s="48"/>
+      <c r="K592" s="4"/>
     </row>
     <row r="593" spans="11:11">
-      <c r="K593" s="48"/>
+      <c r="K593" s="4"/>
     </row>
     <row r="594" spans="11:11">
-      <c r="K594" s="48"/>
+      <c r="K594" s="4"/>
     </row>
     <row r="595" spans="11:11">
-      <c r="K595" s="48"/>
+      <c r="K595" s="4"/>
     </row>
     <row r="596" spans="11:11">
-      <c r="K596" s="48"/>
+      <c r="K596" s="4"/>
     </row>
     <row r="597" spans="11:11">
-      <c r="K597" s="48"/>
+      <c r="K597" s="4"/>
     </row>
     <row r="598" spans="11:11">
-      <c r="K598" s="48"/>
+      <c r="K598" s="4"/>
     </row>
     <row r="599" spans="11:11">
-      <c r="K599" s="48"/>
+      <c r="K599" s="4"/>
     </row>
     <row r="600" spans="11:11">
-      <c r="K600" s="48"/>
+      <c r="K600" s="4"/>
     </row>
     <row r="601" spans="11:11">
-      <c r="K601" s="48"/>
+      <c r="K601" s="4"/>
     </row>
     <row r="602" spans="11:11">
-      <c r="K602" s="48"/>
+      <c r="K602" s="4"/>
     </row>
     <row r="603" spans="11:11">
-      <c r="K603" s="48"/>
+      <c r="K603" s="4"/>
     </row>
     <row r="604" spans="11:11">
-      <c r="K604" s="48"/>
+      <c r="K604" s="4"/>
     </row>
     <row r="605" spans="11:11">
-      <c r="K605" s="48"/>
+      <c r="K605" s="4"/>
     </row>
     <row r="606" spans="11:11">
-      <c r="K606" s="48"/>
+      <c r="K606" s="4"/>
     </row>
     <row r="607" spans="11:11">
-      <c r="K607" s="48"/>
+      <c r="K607" s="4"/>
     </row>
     <row r="608" spans="11:11">
-      <c r="K608" s="48"/>
+      <c r="K608" s="4"/>
     </row>
     <row r="609" spans="11:11">
-      <c r="K609" s="48"/>
+      <c r="K609" s="4"/>
     </row>
     <row r="610" spans="11:11">
-      <c r="K610" s="48"/>
+      <c r="K610" s="4"/>
     </row>
     <row r="611" spans="11:11">
-      <c r="K611" s="48"/>
+      <c r="K611" s="4"/>
     </row>
     <row r="612" spans="11:11">
-      <c r="K612" s="48"/>
+      <c r="K612" s="4"/>
     </row>
     <row r="613" spans="11:11">
-      <c r="K613" s="48"/>
+      <c r="K613" s="4"/>
     </row>
     <row r="614" spans="11:11">
-      <c r="K614" s="48"/>
+      <c r="K614" s="4"/>
     </row>
     <row r="615" spans="11:11">
-      <c r="K615" s="48"/>
+      <c r="K615" s="4"/>
     </row>
     <row r="616" spans="11:11">
-      <c r="K616" s="48"/>
+      <c r="K616" s="4"/>
     </row>
     <row r="617" spans="11:11">
-      <c r="K617" s="48"/>
+      <c r="K617" s="4"/>
     </row>
     <row r="618" spans="11:11">
-      <c r="K618" s="48"/>
+      <c r="K618" s="4"/>
     </row>
     <row r="619" spans="11:11">
-      <c r="K619" s="48"/>
+      <c r="K619" s="4"/>
     </row>
     <row r="620" spans="11:11">
-      <c r="K620" s="48"/>
+      <c r="K620" s="4"/>
     </row>
     <row r="621" spans="11:11">
-      <c r="K621" s="48"/>
+      <c r="K621" s="4"/>
     </row>
     <row r="622" spans="11:11">
-      <c r="K622" s="48"/>
+      <c r="K622" s="4"/>
     </row>
     <row r="623" spans="11:11">
-      <c r="K623" s="48"/>
+      <c r="K623" s="4"/>
     </row>
     <row r="624" spans="11:11">
-      <c r="K624" s="48"/>
+      <c r="K624" s="4"/>
     </row>
     <row r="625" spans="11:11">
-      <c r="K625" s="48"/>
+      <c r="K625" s="4"/>
     </row>
     <row r="626" spans="11:11">
-      <c r="K626" s="48"/>
+      <c r="K626" s="4"/>
     </row>
     <row r="627" spans="11:11">
-      <c r="K627" s="48"/>
+      <c r="K627" s="4"/>
     </row>
     <row r="628" spans="11:11">
-      <c r="K628" s="48"/>
+      <c r="K628" s="4"/>
     </row>
     <row r="629" spans="11:11">
-      <c r="K629" s="48"/>
+      <c r="K629" s="4"/>
     </row>
     <row r="630" spans="11:11">
-      <c r="K630" s="48"/>
+      <c r="K630" s="4"/>
     </row>
     <row r="631" spans="11:11">
-      <c r="K631" s="48"/>
+      <c r="K631" s="4"/>
     </row>
     <row r="632" spans="11:11">
-      <c r="K632" s="48"/>
+      <c r="K632" s="4"/>
     </row>
     <row r="633" spans="11:11">
-      <c r="K633" s="48"/>
+      <c r="K633" s="4"/>
     </row>
     <row r="634" spans="11:11">
-      <c r="K634" s="48"/>
+      <c r="K634" s="4"/>
     </row>
     <row r="635" spans="11:11">
-      <c r="K635" s="48"/>
+      <c r="K635" s="4"/>
     </row>
     <row r="636" spans="11:11">
-      <c r="K636" s="48"/>
+      <c r="K636" s="4"/>
     </row>
     <row r="637" spans="11:11">
-      <c r="K637" s="48"/>
+      <c r="K637" s="4"/>
     </row>
     <row r="638" spans="11:11">
-      <c r="K638" s="48"/>
+      <c r="K638" s="4"/>
     </row>
     <row r="639" spans="11:11">
-      <c r="K639" s="48"/>
+      <c r="K639" s="4"/>
     </row>
     <row r="640" spans="11:11">
-      <c r="K640" s="48"/>
+      <c r="K640" s="4"/>
     </row>
     <row r="641" spans="11:11">
-      <c r="K641" s="48"/>
+      <c r="K641" s="4"/>
     </row>
     <row r="642" spans="11:11">
-      <c r="K642" s="48"/>
+      <c r="K642" s="4"/>
     </row>
     <row r="643" spans="11:11">
-      <c r="K643" s="48"/>
+      <c r="K643" s="4"/>
     </row>
     <row r="644" spans="11:11">
-      <c r="K644" s="48"/>
+      <c r="K644" s="4"/>
     </row>
     <row r="645" spans="11:11">
-      <c r="K645" s="48"/>
+      <c r="K645" s="4"/>
     </row>
     <row r="646" spans="11:11">
-      <c r="K646" s="48"/>
+      <c r="K646" s="4"/>
     </row>
     <row r="647" spans="11:11">
-      <c r="K647" s="48"/>
+      <c r="K647" s="4"/>
     </row>
     <row r="648" spans="11:11">
-      <c r="K648" s="48"/>
+      <c r="K648" s="4"/>
     </row>
     <row r="649" spans="11:11">
-      <c r="K649" s="48"/>
+      <c r="K649" s="4"/>
     </row>
     <row r="650" spans="11:11">
-      <c r="K650" s="48"/>
+      <c r="K650" s="4"/>
     </row>
     <row r="651" spans="11:11">
-      <c r="K651" s="48"/>
+      <c r="K651" s="4"/>
     </row>
     <row r="652" spans="11:11">
-      <c r="K652" s="48"/>
+      <c r="K652" s="4"/>
     </row>
     <row r="653" spans="11:11">
-      <c r="K653" s="48"/>
+      <c r="K653" s="4"/>
     </row>
     <row r="654" spans="11:11">
-      <c r="K654" s="48"/>
+      <c r="K654" s="4"/>
     </row>
     <row r="655" spans="11:11">
-      <c r="K655" s="48"/>
+      <c r="K655" s="4"/>
     </row>
     <row r="656" spans="11:11">
-      <c r="K656" s="48"/>
+      <c r="K656" s="4"/>
     </row>
     <row r="657" spans="11:11">
-      <c r="K657" s="48"/>
+      <c r="K657" s="4"/>
     </row>
     <row r="658" spans="11:11">
-      <c r="K658" s="48"/>
+      <c r="K658" s="4"/>
     </row>
     <row r="659" spans="11:11">
-      <c r="K659" s="48"/>
+      <c r="K659" s="4"/>
     </row>
     <row r="660" spans="11:11">
-      <c r="K660" s="48"/>
+      <c r="K660" s="4"/>
     </row>
     <row r="661" spans="11:11">
-      <c r="K661" s="48"/>
+      <c r="K661" s="4"/>
     </row>
     <row r="662" spans="11:11">
-      <c r="K662" s="48"/>
+      <c r="K662" s="4"/>
     </row>
     <row r="663" spans="11:11">
-      <c r="K663" s="48"/>
+      <c r="K663" s="4"/>
     </row>
     <row r="664" spans="11:11">
-      <c r="K664" s="48"/>
+      <c r="K664" s="4"/>
     </row>
     <row r="665" spans="11:11">
-      <c r="K665" s="48"/>
+      <c r="K665" s="4"/>
     </row>
     <row r="666" spans="11:11">
-      <c r="K666" s="48"/>
+      <c r="K666" s="4"/>
     </row>
     <row r="667" spans="11:11">
-      <c r="K667" s="48"/>
+      <c r="K667" s="4"/>
     </row>
     <row r="668" spans="11:11">
-      <c r="K668" s="48"/>
+      <c r="K668" s="4"/>
     </row>
     <row r="669" spans="11:11">
-      <c r="K669" s="48"/>
+      <c r="K669" s="4"/>
     </row>
     <row r="670" spans="11:11">
-      <c r="K670" s="48"/>
+      <c r="K670" s="4"/>
     </row>
     <row r="671" spans="11:11">
-      <c r="K671" s="48"/>
+      <c r="K671" s="4"/>
     </row>
     <row r="672" spans="11:11">
-      <c r="K672" s="48"/>
+      <c r="K672" s="4"/>
     </row>
     <row r="673" spans="11:11">
-      <c r="K673" s="48"/>
+      <c r="K673" s="4"/>
     </row>
     <row r="674" spans="11:11">
-      <c r="K674" s="48"/>
+      <c r="K674" s="4"/>
     </row>
     <row r="675" spans="11:11">
-      <c r="K675" s="48"/>
+      <c r="K675" s="4"/>
     </row>
     <row r="676" spans="11:11">
-      <c r="K676" s="48"/>
+      <c r="K676" s="4"/>
     </row>
     <row r="677" spans="11:11">
-      <c r="K677" s="48"/>
+      <c r="K677" s="4"/>
     </row>
     <row r="678" spans="11:11">
-      <c r="K678" s="48"/>
+      <c r="K678" s="4"/>
     </row>
     <row r="679" spans="11:11">
-      <c r="K679" s="48"/>
+      <c r="K679" s="4"/>
     </row>
     <row r="680" spans="11:11">
-      <c r="K680" s="48"/>
+      <c r="K680" s="4"/>
     </row>
     <row r="681" spans="11:11">
-      <c r="K681" s="48"/>
+      <c r="K681" s="4"/>
     </row>
     <row r="682" spans="11:11">
-      <c r="K682" s="48"/>
+      <c r="K682" s="4"/>
     </row>
     <row r="683" spans="11:11">
-      <c r="K683" s="48"/>
+      <c r="K683" s="4"/>
     </row>
     <row r="684" spans="11:11">
-      <c r="K684" s="48"/>
+      <c r="K684" s="4"/>
     </row>
     <row r="685" spans="11:11">
-      <c r="K685" s="48"/>
+      <c r="K685" s="4"/>
     </row>
     <row r="686" spans="11:11">
-      <c r="K686" s="48"/>
+      <c r="K686" s="4"/>
     </row>
     <row r="687" spans="11:11">
-      <c r="K687" s="48"/>
+      <c r="K687" s="4"/>
     </row>
     <row r="688" spans="11:11">
-      <c r="K688" s="48"/>
+      <c r="K688" s="4"/>
     </row>
     <row r="689" spans="11:11">
-      <c r="K689" s="48"/>
+      <c r="K689" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
